--- a/bright_bodies_support/Cost items.xlsx
+++ b/bright_bodies_support/Cost items.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry87\PycharmProjects\ObesityModel\bright_bodies_support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1287257-FA84-4D94-854A-F2932098D6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B614B-0737-41B4-BA56-3196A0D0EF84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BB" sheetId="1" r:id="rId1"/>
     <sheet name="CC" sheetId="3" r:id="rId2"/>
+    <sheet name="inflation" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="inflation" localSheetId="1">CC!$B$1</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="162">
   <si>
     <t>Cost Item</t>
   </si>
@@ -572,6 +573,39 @@
   <si>
     <t>Social Worker (Behavioral visit)</t>
   </si>
+  <si>
+    <t>Industry/Commodity or Service</t>
+  </si>
+  <si>
+    <t>PCE - Health</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>(Overall)</t>
+  </si>
+  <si>
+    <t>PHC -</t>
+  </si>
+  <si>
+    <t>Hospital care</t>
+  </si>
+  <si>
+    <t>Physician/ clinical services</t>
+  </si>
+  <si>
+    <t>Other professional services</t>
+  </si>
+  <si>
+    <t>Dental services</t>
+  </si>
+  <si>
+    <t>1977*</t>
+  </si>
+  <si>
+    <t>1987*</t>
+  </si>
 </sst>
 </file>
 
@@ -581,7 +615,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,8 +683,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,8 +718,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -701,11 +768,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,60 +948,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -838,8 +960,107 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1120,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1133,41 +1354,41 @@
     <col min="7" max="7" width="1.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="68.7265625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.7265625" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="75.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B1">
-        <v>0.02</v>
+      <c r="B1" s="63">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C1">
         <f>1+inflation</f>
-        <v>1.02</v>
+        <v>1.022</v>
       </c>
       <c r="H1">
         <v>0.1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="27" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="23" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="49" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1176,22 +1397,22 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="44"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1200,342 +1421,342 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="41">
         <f>208*D5*inflation_factor</f>
-        <v>5584.0512000000008</v>
+        <v>5595.0003200000001</v>
       </c>
       <c r="G5" t="s">
         <v>140</v>
       </c>
       <c r="H5" t="str">
         <f>TEXT(E5,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>5584.05*(1+fringe_rate)</v>
+        <v>5595.00*(1+fringe_rate)</v>
       </c>
       <c r="I5" t="str">
         <f>std_factor&amp;"*"&amp;H5</f>
-        <v>0.1*5584.05*(1+fringe_rate)</v>
-      </c>
-      <c r="J5" s="46" t="str">
+        <v>0.1*5595.00*(1+fringe_rate)</v>
+      </c>
+      <c r="J5" s="28" t="str">
         <f>"'"&amp;B5&amp;"'"&amp;": " &amp;G5&amp;H5&amp;", " &amp;I5&amp;"],"</f>
-        <v>'Exercise Physiologist A': [5584.05*(1+fringe_rate), 0.1*5584.05*(1+fringe_rate)],</v>
-      </c>
-      <c r="L5" s="44" t="str">
+        <v>'Exercise Physiologist A': [5595.00*(1+fringe_rate), 0.1*5595.00*(1+fringe_rate)],</v>
+      </c>
+      <c r="L5" s="26" t="str">
         <f>J5</f>
-        <v>'Exercise Physiologist A': [5584.05*(1+fringe_rate), 0.1*5584.05*(1+fringe_rate)],</v>
+        <v>'Exercise Physiologist A': [5595.00*(1+fringe_rate), 0.1*5595.00*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="32"/>
-      <c r="L6" s="44" t="str">
+      <c r="D6" s="45"/>
+      <c r="E6" s="42"/>
+      <c r="L6" s="26" t="str">
         <f>J9</f>
-        <v>'Exercise Physiologist B': [6980.06*(1+fringe_rate), 0.1*6980.06*(1+fringe_rate)],</v>
+        <v>'Exercise Physiologist B': [6993.75*(1+fringe_rate), 0.1*6993.75*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="32"/>
-      <c r="L7" s="44" t="str">
+      <c r="D7" s="45"/>
+      <c r="E7" s="42"/>
+      <c r="L7" s="26" t="str">
         <f>J13</f>
-        <v>'Games and Equipment:': [2457.85*(1+fringe_rate), 0.1*2457.85*(1+fringe_rate)],</v>
+        <v>'Games and Equipment:': [2521.25*(1+fringe_rate), 0.1*2521.25*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="26"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="34"/>
-      <c r="L8" s="44" t="str">
+      <c r="D8" s="46"/>
+      <c r="E8" s="43"/>
+      <c r="L8" s="26" t="str">
         <f>J16</f>
-        <v>'Motivational Tools:': [310.47*(1+fringe_rate), 0.1*310.47*(1+fringe_rate)],</v>
+        <v>'Motivational Tools:': [318.47*(1+fringe_rate), 0.1*318.47*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="41">
         <f>260*D9*inflation_factor</f>
-        <v>6980.0640000000003</v>
+        <v>6993.7503999999999</v>
       </c>
       <c r="G9" t="s">
         <v>140</v>
       </c>
       <c r="H9" t="str">
         <f>TEXT(E9,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>6980.06*(1+fringe_rate)</v>
+        <v>6993.75*(1+fringe_rate)</v>
       </c>
       <c r="I9" t="str">
         <f>std_factor&amp;"*"&amp;H9</f>
-        <v>0.1*6980.06*(1+fringe_rate)</v>
-      </c>
-      <c r="J9" s="46" t="str">
+        <v>0.1*6993.75*(1+fringe_rate)</v>
+      </c>
+      <c r="J9" s="28" t="str">
         <f>"'"&amp;B9&amp;"'"&amp;": " &amp;G9&amp;H9&amp;", " &amp;I9&amp;"],"</f>
-        <v>'Exercise Physiologist B': [6980.06*(1+fringe_rate), 0.1*6980.06*(1+fringe_rate)],</v>
-      </c>
-      <c r="L9" s="44" t="str">
+        <v>'Exercise Physiologist B': [6993.75*(1+fringe_rate), 0.1*6993.75*(1+fringe_rate)],</v>
+      </c>
+      <c r="L9" s="26" t="str">
         <f>J20</f>
-        <v>'Printed Materials (Exercise Session)': [32.34*(1+fringe_rate), 0.1*32.34*(1+fringe_rate)],</v>
+        <v>'Printed Materials (Exercise Session)': [33.17*(1+fringe_rate), 0.1*33.17*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="32"/>
-      <c r="L10" s="44" t="str">
+      <c r="D10" s="45"/>
+      <c r="E10" s="42"/>
+      <c r="L10" s="26" t="str">
         <f>J23</f>
         <v>'Gym Room and Utilities': [10400.00*(1+fringe_rate), 0.1*10400.00*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="32"/>
-      <c r="L11" s="44" t="str">
+      <c r="D11" s="45"/>
+      <c r="E11" s="42"/>
+      <c r="L11" s="26" t="str">
         <f>J26</f>
-        <v>'First Aid Kit': [194.04*(1+fringe_rate), 0.1*194.04*(1+fringe_rate)],</v>
+        <v>'First Aid Kit': [199.05*(1+fringe_rate), 0.1*199.05*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="26"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="34"/>
-      <c r="L12" s="44" t="str">
+      <c r="D12" s="46"/>
+      <c r="E12" s="43"/>
+      <c r="L12" s="26" t="str">
         <f>J30</f>
-        <v>'Registered Dietitian A': [1589.61*(1+fringe_rate), 0.1*1589.61*(1+fringe_rate)],</v>
+        <v>'Registered Dietitian A': [1592.73*(1+fringe_rate), 0.1*1592.73*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="41">
         <v>1900</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="33">
+      <c r="D13" s="44"/>
+      <c r="E13" s="41">
         <f>C13*inflation_factor^13</f>
-        <v>2457.8525978622124</v>
+        <v>2521.2461400846159</v>
       </c>
       <c r="G13" t="s">
         <v>140</v>
       </c>
       <c r="H13" t="str">
         <f>TEXT(E13,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>2457.85*(1+fringe_rate)</v>
+        <v>2521.25*(1+fringe_rate)</v>
       </c>
       <c r="I13" t="str">
         <f>std_factor&amp;"*"&amp;H13</f>
-        <v>0.1*2457.85*(1+fringe_rate)</v>
-      </c>
-      <c r="J13" s="46" t="str">
+        <v>0.1*2521.25*(1+fringe_rate)</v>
+      </c>
+      <c r="J13" s="28" t="str">
         <f>"'"&amp;B13&amp;"'"&amp;": " &amp;G13&amp;H13&amp;", " &amp;I13&amp;"],"</f>
-        <v>'Games and Equipment:': [2457.85*(1+fringe_rate), 0.1*2457.85*(1+fringe_rate)],</v>
-      </c>
-      <c r="L13" s="44" t="str">
+        <v>'Games and Equipment:': [2521.25*(1+fringe_rate), 0.1*2521.25*(1+fringe_rate)],</v>
+      </c>
+      <c r="L13" s="26" t="str">
         <f>J35</f>
-        <v>'Registered Dietitian B': [4768.83*(1+fringe_rate), 0.1*4768.83*(1+fringe_rate)],</v>
+        <v>'Registered Dietitian B': [4778.18*(1+fringe_rate), 0.1*4778.18*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="L14" s="44" t="str">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="47"/>
+      <c r="L14" s="26" t="str">
         <f>J40</f>
-        <v>'Social Worker (Nutrition Session)': [1285.16*(1+fringe_rate), 0.1*1285.16*(1+fringe_rate)],</v>
+        <v>'Social Worker (Nutrition Session)': [1287.68*(1+fringe_rate), 0.1*1287.68*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="26"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="34"/>
-      <c r="L15" s="44" t="str">
+      <c r="C15" s="43"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="43"/>
+      <c r="L15" s="26" t="str">
         <f>J45</f>
-        <v>'Educational Tools ': [1746.37*(1+fringe_rate), 0.1*1746.37*(1+fringe_rate)],</v>
+        <v>'Educational Tools ': [1791.41*(1+fringe_rate), 0.1*1791.41*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="33">
+      <c r="D16" s="44"/>
+      <c r="E16" s="41">
         <f>240*inflation_factor^13</f>
-        <v>310.46559130891109</v>
+        <v>318.47319664226728</v>
       </c>
       <c r="G16" t="s">
         <v>140</v>
       </c>
       <c r="H16" t="str">
         <f>TEXT(E16,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>310.47*(1+fringe_rate)</v>
+        <v>318.47*(1+fringe_rate)</v>
       </c>
       <c r="I16" t="str">
         <f>std_factor&amp;"*"&amp;H16</f>
-        <v>0.1*310.47*(1+fringe_rate)</v>
-      </c>
-      <c r="J16" s="46" t="str">
+        <v>0.1*318.47*(1+fringe_rate)</v>
+      </c>
+      <c r="J16" s="28" t="str">
         <f>"'"&amp;B16&amp;"'"&amp;": " &amp;G16&amp;H16&amp;", " &amp;I16&amp;"],"</f>
-        <v>'Motivational Tools:': [310.47*(1+fringe_rate), 0.1*310.47*(1+fringe_rate)],</v>
-      </c>
-      <c r="L16" s="44" t="str">
+        <v>'Motivational Tools:': [318.47*(1+fringe_rate), 0.1*318.47*(1+fringe_rate)],</v>
+      </c>
+      <c r="L16" s="26" t="str">
         <f>J46</f>
         <v>'Classroom and Utilities (Nutrition Session)': [2600.00*(1+fringe_rate), 0.1*2600.00*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="32"/>
-      <c r="L17" s="44" t="str">
+      <c r="D17" s="45"/>
+      <c r="E17" s="42"/>
+      <c r="L17" s="26" t="str">
         <f>J49</f>
-        <v>'Social Worker (Parent Session)': [1285.16*(1+fringe_rate), 0.1*1285.16*(1+fringe_rate)],</v>
+        <v>'Social Worker (Parent Session)': [1287.68*(1+fringe_rate), 0.1*1287.68*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="32"/>
-      <c r="L18" s="44" t="str">
+      <c r="D18" s="45"/>
+      <c r="E18" s="42"/>
+      <c r="L18" s="26" t="str">
         <f>J54</f>
-        <v>'Printed Materials (Parent Session)': [32.34*(1+fringe_rate), 0.1*32.34*(1+fringe_rate)],</v>
+        <v>'Printed Materials (Parent Session)': [33.17*(1+fringe_rate), 0.1*33.17*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="26"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="34"/>
-      <c r="L19" s="44" t="str">
+      <c r="D19" s="46"/>
+      <c r="E19" s="43"/>
+      <c r="L19" s="26" t="str">
         <f>J57</f>
         <v>'Classroom and Utilities (Parent Session)': [2600.00*(1+fringe_rate), 0.1*2600.00*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="51">
         <v>25</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="33">
+      <c r="D20" s="44"/>
+      <c r="E20" s="41">
         <f>C20*inflation_factor^13</f>
-        <v>32.340165761344899</v>
+        <v>33.174291316902845</v>
       </c>
       <c r="G20" t="s">
         <v>140</v>
       </c>
       <c r="H20" t="str">
         <f>TEXT(E20,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>32.34*(1+fringe_rate)</v>
+        <v>33.17*(1+fringe_rate)</v>
       </c>
       <c r="I20" t="str">
         <f>std_factor&amp;"*"&amp;H20</f>
-        <v>0.1*32.34*(1+fringe_rate)</v>
-      </c>
-      <c r="J20" s="46" t="str">
+        <v>0.1*33.17*(1+fringe_rate)</v>
+      </c>
+      <c r="J20" s="28" t="str">
         <f>"'"&amp;B20&amp;"'"&amp;": " &amp;G20&amp;H20&amp;", " &amp;I20&amp;"],"</f>
-        <v>'Printed Materials (Exercise Session)': [32.34*(1+fringe_rate), 0.1*32.34*(1+fringe_rate)],</v>
-      </c>
-      <c r="L20" s="44" t="str">
+        <v>'Printed Materials (Exercise Session)': [33.17*(1+fringe_rate), 0.1*33.17*(1+fringe_rate)],</v>
+      </c>
+      <c r="L20" s="26" t="str">
         <f>J60</f>
-        <v>'Program Coordinator (exercise physiologist)(admin)': [6980.06*(1+fringe_rate), 0.1*6980.06*(1+fringe_rate)],</v>
+        <v>'Program Coordinator (exercise physiologist)(admin)': [6993.75*(1+fringe_rate), 0.1*6993.75*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="L21" s="44" t="str">
+      <c r="C21" s="54"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="47"/>
+      <c r="L21" s="26" t="str">
         <f>J64</f>
-        <v>'Program Director (registered dietitian)(admin)': [12716.87*(1+fringe_rate), 0.1*12716.87*(1+fringe_rate)],</v>
+        <v>'Program Director (registered dietitian)(admin)': [12741.81*(1+fringe_rate), 0.1*12741.81*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="34"/>
-      <c r="L22" s="44" t="str">
+      <c r="C22" s="53"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="43"/>
+      <c r="L22" s="26" t="str">
         <f>J68</f>
-        <v>'Department Clinical Secretary': [560.29*(1+fringe_rate), 0.1*560.29*(1+fringe_rate)],</v>
+        <v>'Department Clinical Secretary': [561.38*(1+fringe_rate), 0.1*561.38*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="51" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="39">
+      <c r="D23" s="44"/>
+      <c r="E23" s="55">
         <v>10400</v>
       </c>
       <c r="G23" t="s">
@@ -1549,113 +1770,113 @@
         <f>std_factor&amp;"*"&amp;H23</f>
         <v>0.1*10400.00*(1+fringe_rate)</v>
       </c>
-      <c r="J23" s="46" t="str">
+      <c r="J23" s="28" t="str">
         <f>"'"&amp;B23&amp;"'"&amp;": " &amp;G23&amp;H23&amp;", " &amp;I23&amp;"],"</f>
         <v>'Gym Room and Utilities': [10400.00*(1+fringe_rate), 0.1*10400.00*(1+fringe_rate)],</v>
       </c>
-      <c r="L23" s="44" t="str">
+      <c r="L23" s="26" t="str">
         <f>J74</f>
-        <v>'Technician': [1444.93*(1+fringe_rate), 0.1*1444.93*(1+fringe_rate)],</v>
+        <v>'Technician': [1447.77*(1+fringe_rate), 0.1*1447.77*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="38"/>
-      <c r="L24" s="44" t="str">
+      <c r="D24" s="45"/>
+      <c r="E24" s="56"/>
+      <c r="L24" s="26" t="str">
         <f>J81</f>
-        <v>'Equipment (Weight): ': [905.52*(1+fringe_rate), 0.1*905.52*(1+fringe_rate)],</v>
+        <v>'Equipment (Weight): ': [928.88*(1+fringe_rate), 0.1*928.88*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="40"/>
-      <c r="L25" s="44" t="str">
+      <c r="D25" s="46"/>
+      <c r="E25" s="57"/>
+      <c r="L25" s="26" t="str">
         <f>J86</f>
-        <v>'Equipment (Height):': [77.62*(1+fringe_rate), 0.1*77.62*(1+fringe_rate)],</v>
+        <v>'Equipment (Height):': [79.62*(1+fringe_rate), 0.1*79.62*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="51" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="33">
+      <c r="D26" s="44"/>
+      <c r="E26" s="41">
         <f>150*inflation_factor^13</f>
-        <v>194.04099456806941</v>
+        <v>199.04574790141706</v>
       </c>
       <c r="G26" t="s">
         <v>140</v>
       </c>
       <c r="H26" t="str">
         <f>TEXT(E26,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>194.04*(1+fringe_rate)</v>
+        <v>199.05*(1+fringe_rate)</v>
       </c>
       <c r="I26" t="str">
         <f>std_factor&amp;"*"&amp;H26</f>
-        <v>0.1*194.04*(1+fringe_rate)</v>
-      </c>
-      <c r="J26" s="46" t="str">
+        <v>0.1*199.05*(1+fringe_rate)</v>
+      </c>
+      <c r="J26" s="28" t="str">
         <f>"'"&amp;B26&amp;"'"&amp;": " &amp;G26&amp;H26&amp;", " &amp;I26&amp;"],"</f>
-        <v>'First Aid Kit': [194.04*(1+fringe_rate), 0.1*194.04*(1+fringe_rate)],</v>
-      </c>
-      <c r="L26" s="44" t="str">
+        <v>'First Aid Kit': [199.05*(1+fringe_rate), 0.1*199.05*(1+fringe_rate)],</v>
+      </c>
+      <c r="L26" s="26" t="str">
         <f>J91</f>
-        <v>'Medical Director': [5438.19*(1+fringe_rate), 0.1*5438.19*(1+fringe_rate)],</v>
+        <v>'Medical Director': [5448.85*(1+fringe_rate), 0.1*5448.85*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="L27" s="44" t="str">
+      <c r="D27" s="48"/>
+      <c r="E27" s="47"/>
+      <c r="L27" s="26" t="str">
         <f>J95</f>
-        <v>'Space:': [3880.82*(1+fringe_rate), 0.1*3880.82*(1+fringe_rate)],</v>
+        <v>'Space:': [3980.91*(1+fringe_rate), 0.1*3980.91*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="L28" s="44" t="str">
+      <c r="D28" s="48"/>
+      <c r="E28" s="47"/>
+      <c r="L28" s="26" t="str">
         <f>J97</f>
-        <v>'Cleaning Service': [1144.84*(1+fringe_rate), 0.1*1144.84*(1+fringe_rate)],</v>
+        <v>'Cleaning Service': [1174.37*(1+fringe_rate), 0.1*1174.37*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="34"/>
-      <c r="L29" s="44" t="str">
+      <c r="D29" s="46"/>
+      <c r="E29" s="43"/>
+      <c r="L29" s="26" t="str">
         <f>J98</f>
-        <v>'Clinic Equipment and Supplies ': [3751.46*(1+fringe_rate), 0.1*3751.46*(1+fringe_rate)],</v>
+        <v>'Clinic Equipment and Supplies ': [3848.22*(1+fringe_rate), 0.1*3848.22*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="51" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1664,201 +1885,201 @@
       <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="41">
         <f>52*D30*inflation_factor</f>
-        <v>1589.6088</v>
+        <v>1592.72568</v>
       </c>
       <c r="G30" t="s">
         <v>140</v>
       </c>
       <c r="H30" t="str">
         <f>TEXT(E30,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1589.61*(1+fringe_rate)</v>
+        <v>1592.73*(1+fringe_rate)</v>
       </c>
       <c r="I30" t="str">
         <f>std_factor&amp;"*"&amp;H30</f>
-        <v>0.1*1589.61*(1+fringe_rate)</v>
-      </c>
-      <c r="J30" s="46" t="str">
+        <v>0.1*1592.73*(1+fringe_rate)</v>
+      </c>
+      <c r="J30" s="28" t="str">
         <f>"'"&amp;B30&amp;"'"&amp;": " &amp;G30&amp;H30&amp;", " &amp;I30&amp;"],"</f>
-        <v>'Registered Dietitian A': [1589.61*(1+fringe_rate), 0.1*1589.61*(1+fringe_rate)],</v>
+        <v>'Registered Dietitian A': [1592.73*(1+fringe_rate), 0.1*1592.73*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="32"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="32"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="32"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="26"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="34"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="41">
         <f>156*D35*inflation_factor</f>
-        <v>4768.8263999999999</v>
+        <v>4778.1770399999996</v>
       </c>
       <c r="G35" t="s">
         <v>140</v>
       </c>
       <c r="H35" t="str">
         <f>TEXT(E35,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>4768.83*(1+fringe_rate)</v>
+        <v>4778.18*(1+fringe_rate)</v>
       </c>
       <c r="I35" t="str">
         <f>std_factor&amp;"*"&amp;H35</f>
-        <v>0.1*4768.83*(1+fringe_rate)</v>
-      </c>
-      <c r="J35" s="46" t="str">
+        <v>0.1*4778.18*(1+fringe_rate)</v>
+      </c>
+      <c r="J35" s="28" t="str">
         <f>"'"&amp;B35&amp;"'"&amp;": " &amp;G35&amp;H35&amp;", " &amp;I35&amp;"],"</f>
-        <v>'Registered Dietitian B': [4768.83*(1+fringe_rate), 0.1*4768.83*(1+fringe_rate)],</v>
+        <v>'Registered Dietitian B': [4778.18*(1+fringe_rate), 0.1*4778.18*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="47"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="26"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="47"/>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="26"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="34"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="41">
         <f>52*D40*inflation_factor</f>
-        <v>1285.1592000000001</v>
+        <v>1287.67912</v>
       </c>
       <c r="G40" t="s">
         <v>140</v>
       </c>
       <c r="H40" t="str">
         <f>TEXT(E40,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1285.16*(1+fringe_rate)</v>
+        <v>1287.68*(1+fringe_rate)</v>
       </c>
       <c r="I40" t="str">
         <f>std_factor&amp;"*"&amp;H40</f>
-        <v>0.1*1285.16*(1+fringe_rate)</v>
-      </c>
-      <c r="J40" s="46" t="str">
+        <v>0.1*1287.68*(1+fringe_rate)</v>
+      </c>
+      <c r="J40" s="28" t="str">
         <f>"'"&amp;B40&amp;"'"&amp;": " &amp;G40&amp;H40&amp;", " &amp;I40&amp;"],"</f>
-        <v>'Social Worker (Nutrition Session)': [1285.16*(1+fringe_rate), 0.1*1285.16*(1+fringe_rate)],</v>
+        <v>'Social Worker (Nutrition Session)': [1287.68*(1+fringe_rate), 0.1*1287.68*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="32"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="42"/>
     </row>
     <row r="42" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="32"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="42"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="32"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="26"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="34"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="17" t="s">
         <v>47</v>
       </c>
@@ -1868,7 +2089,7 @@
       <c r="D45" s="18"/>
       <c r="E45" s="19">
         <f>C45*inflation_factor^13</f>
-        <v>1746.3689511126247</v>
+        <v>1791.4117311127536</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" t="s">
@@ -1876,27 +2097,27 @@
       </c>
       <c r="H45" t="str">
         <f>TEXT(E45,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1746.37*(1+fringe_rate)</v>
+        <v>1791.41*(1+fringe_rate)</v>
       </c>
       <c r="I45" t="str">
         <f>std_factor&amp;"*"&amp;H45</f>
-        <v>0.1*1746.37*(1+fringe_rate)</v>
-      </c>
-      <c r="J45" s="46" t="str">
+        <v>0.1*1791.41*(1+fringe_rate)</v>
+      </c>
+      <c r="J45" s="28" t="str">
         <f>"'"&amp;B45&amp;"'"&amp;": " &amp;G45&amp;H45&amp;", " &amp;I45&amp;"],"</f>
-        <v>'Educational Tools ': [1746.37*(1+fringe_rate), 0.1*1746.37*(1+fringe_rate)],</v>
+        <v>'Educational Tools ': [1791.41*(1+fringe_rate), 0.1*1791.41*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27" t="s">
+      <c r="A46" s="52"/>
+      <c r="B46" s="51" t="s">
         <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="39">
+      <c r="D46" s="44"/>
+      <c r="E46" s="55">
         <v>2600</v>
       </c>
       <c r="G46" t="s">
@@ -1910,31 +2131,31 @@
         <f>std_factor&amp;"*"&amp;H46</f>
         <v>0.1*2600.00*(1+fringe_rate)</v>
       </c>
-      <c r="J46" s="46" t="str">
+      <c r="J46" s="28" t="str">
         <f>"'"&amp;B46&amp;"'"&amp;": " &amp;G46&amp;H46&amp;", " &amp;I46&amp;"],"</f>
         <v>'Classroom and Utilities (Nutrition Session)': [2600.00*(1+fringe_rate), 0.1*2600.00*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="38"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="56"/>
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="40"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="57"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="51" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1943,120 +2164,120 @@
       <c r="C49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="41">
         <f>52*D49*inflation_factor</f>
-        <v>1285.1592000000001</v>
+        <v>1287.67912</v>
       </c>
       <c r="G49" t="s">
         <v>140</v>
       </c>
       <c r="H49" t="str">
         <f>TEXT(E49,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1285.16*(1+fringe_rate)</v>
+        <v>1287.68*(1+fringe_rate)</v>
       </c>
       <c r="I49" t="str">
         <f>std_factor&amp;"*"&amp;H49</f>
-        <v>0.1*1285.16*(1+fringe_rate)</v>
-      </c>
-      <c r="J49" s="46" t="str">
+        <v>0.1*1287.68*(1+fringe_rate)</v>
+      </c>
+      <c r="J49" s="28" t="str">
         <f>"'"&amp;B49&amp;"'"&amp;": " &amp;G49&amp;H49&amp;", " &amp;I49&amp;"],"</f>
-        <v>'Social Worker (Parent Session)': [1285.16*(1+fringe_rate), 0.1*1285.16*(1+fringe_rate)],</v>
+        <v>'Social Worker (Parent Session)': [1287.68*(1+fringe_rate), 0.1*1287.68*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="35"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="47"/>
     </row>
     <row r="51" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A51" s="35"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="47"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="35"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="47"/>
     </row>
     <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="35"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="34"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="35"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="51">
         <v>25</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="33">
+      <c r="D54" s="44"/>
+      <c r="E54" s="41">
         <f>C54*inflation_factor^13</f>
-        <v>32.340165761344899</v>
+        <v>33.174291316902845</v>
       </c>
       <c r="G54" t="s">
         <v>140</v>
       </c>
       <c r="H54" t="str">
         <f>TEXT(E54,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>32.34*(1+fringe_rate)</v>
+        <v>33.17*(1+fringe_rate)</v>
       </c>
       <c r="I54" t="str">
         <f>std_factor&amp;"*"&amp;H54</f>
-        <v>0.1*32.34*(1+fringe_rate)</v>
-      </c>
-      <c r="J54" s="46" t="str">
+        <v>0.1*33.17*(1+fringe_rate)</v>
+      </c>
+      <c r="J54" s="28" t="str">
         <f>"'"&amp;B54&amp;"'"&amp;": " &amp;G54&amp;H54&amp;", " &amp;I54&amp;"],"</f>
-        <v>'Printed Materials (Parent Session)': [32.34*(1+fringe_rate), 0.1*32.34*(1+fringe_rate)],</v>
+        <v>'Printed Materials (Parent Session)': [33.17*(1+fringe_rate), 0.1*33.17*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="35"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="32"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="42"/>
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="35"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="34"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="35"/>
-      <c r="B57" s="27" t="s">
+      <c r="A57" s="54"/>
+      <c r="B57" s="51" t="s">
         <v>147</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="39">
+      <c r="D57" s="44"/>
+      <c r="E57" s="55">
         <v>2600</v>
       </c>
       <c r="G57" t="s">
@@ -2070,31 +2291,31 @@
         <f>std_factor&amp;"*"&amp;H57</f>
         <v>0.1*2600.00*(1+fringe_rate)</v>
       </c>
-      <c r="J57" s="46" t="str">
+      <c r="J57" s="28" t="str">
         <f>"'"&amp;B57&amp;"'"&amp;": " &amp;G57&amp;H57&amp;", " &amp;I57&amp;"],"</f>
         <v>'Classroom and Utilities (Parent Session)': [2600.00*(1+fringe_rate), 0.1*2600.00*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="41"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="58"/>
     </row>
     <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="40"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2103,192 +2324,192 @@
       <c r="C60" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="41">
         <f>260*D60*inflation_factor</f>
-        <v>6980.0640000000003</v>
+        <v>6993.7503999999999</v>
       </c>
       <c r="G60" t="s">
         <v>140</v>
       </c>
       <c r="H60" t="str">
         <f>TEXT(E60,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>6980.06*(1+fringe_rate)</v>
+        <v>6993.75*(1+fringe_rate)</v>
       </c>
       <c r="I60" t="str">
         <f>std_factor&amp;"*"&amp;H60</f>
-        <v>0.1*6980.06*(1+fringe_rate)</v>
-      </c>
-      <c r="J60" s="46" t="str">
+        <v>0.1*6993.75*(1+fringe_rate)</v>
+      </c>
+      <c r="J60" s="28" t="str">
         <f>"'"&amp;B60&amp;"'"&amp;": " &amp;G60&amp;H60&amp;", " &amp;I60&amp;"],"</f>
-        <v>'Program Coordinator (exercise physiologist)(admin)': [6980.06*(1+fringe_rate), 0.1*6980.06*(1+fringe_rate)],</v>
+        <v>'Program Coordinator (exercise physiologist)(admin)': [6993.75*(1+fringe_rate), 0.1*6993.75*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="26"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="32"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="26"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="4"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="32"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="42"/>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="26"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="34"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="26"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E64" s="41">
         <f>416*D64*inflation_factor</f>
-        <v>12716.8704</v>
+        <v>12741.80544</v>
       </c>
       <c r="G64" t="s">
         <v>140</v>
       </c>
       <c r="H64" t="str">
         <f>TEXT(E64,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>12716.87*(1+fringe_rate)</v>
+        <v>12741.81*(1+fringe_rate)</v>
       </c>
       <c r="I64" t="str">
         <f>std_factor&amp;"*"&amp;H64</f>
-        <v>0.1*12716.87*(1+fringe_rate)</v>
-      </c>
-      <c r="J64" s="46" t="str">
+        <v>0.1*12741.81*(1+fringe_rate)</v>
+      </c>
+      <c r="J64" s="28" t="str">
         <f>"'"&amp;B64&amp;"'"&amp;": " &amp;G64&amp;H64&amp;", " &amp;I64&amp;"],"</f>
-        <v>'Program Director (registered dietitian)(admin)': [12716.87*(1+fringe_rate), 0.1*12716.87*(1+fringe_rate)],</v>
+        <v>'Program Director (registered dietitian)(admin)': [12741.81*(1+fringe_rate), 0.1*12741.81*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="26"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="47"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="26"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="4"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="37"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="47"/>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="26"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="5"/>
       <c r="C67" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="34"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="26"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="41">
         <f>30*D68*inflation_factor</f>
-        <v>560.28599999999994</v>
+        <v>561.38459999999998</v>
       </c>
       <c r="G68" t="s">
         <v>140</v>
       </c>
       <c r="H68" t="str">
         <f>TEXT(E68,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>560.29*(1+fringe_rate)</v>
+        <v>561.38*(1+fringe_rate)</v>
       </c>
       <c r="I68" t="str">
         <f>std_factor&amp;"*"&amp;H68</f>
-        <v>0.1*560.29*(1+fringe_rate)</v>
-      </c>
-      <c r="J68" s="46" t="str">
+        <v>0.1*561.38*(1+fringe_rate)</v>
+      </c>
+      <c r="J68" s="28" t="str">
         <f>"'"&amp;B68&amp;"'"&amp;": " &amp;G68&amp;H68&amp;", " &amp;I68&amp;"],"</f>
-        <v>'Department Clinical Secretary': [560.29*(1+fringe_rate), 0.1*560.29*(1+fringe_rate)],</v>
+        <v>'Department Clinical Secretary': [561.38*(1+fringe_rate), 0.1*561.38*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="26"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="3"/>
       <c r="C69" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="32"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A70" s="26"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="32"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="26"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="3"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="32"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="26"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="32"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="42"/>
     </row>
     <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="28"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="34"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -2297,215 +2518,215 @@
       <c r="C74" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="33">
+      <c r="E74" s="41">
         <f>60*D74*inflation_factor</f>
-        <v>1444.932</v>
+        <v>1447.7651999999998</v>
       </c>
       <c r="G74" t="s">
         <v>140</v>
       </c>
       <c r="H74" t="str">
         <f>TEXT(E74,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1444.93*(1+fringe_rate)</v>
+        <v>1447.77*(1+fringe_rate)</v>
       </c>
       <c r="I74" t="str">
         <f>std_factor&amp;"*"&amp;H74</f>
-        <v>0.1*1444.93*(1+fringe_rate)</v>
-      </c>
-      <c r="J74" s="46" t="str">
+        <v>0.1*1447.77*(1+fringe_rate)</v>
+      </c>
+      <c r="J74" s="28" t="str">
         <f>"'"&amp;B74&amp;"'"&amp;": " &amp;G74&amp;H74&amp;", " &amp;I74&amp;"],"</f>
-        <v>'Technician': [1444.93*(1+fringe_rate), 0.1*1444.93*(1+fringe_rate)],</v>
+        <v>'Technician': [1447.77*(1+fringe_rate), 0.1*1447.77*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="35"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="3"/>
       <c r="C75" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="37"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="47"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="35"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="37"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="47"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="35"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="3"/>
       <c r="C77" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="37"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="47"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="35"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="6"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="37"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="47"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="35"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="4"/>
       <c r="C79" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="37"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="47"/>
     </row>
     <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="35"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="5"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="34"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="43"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="35"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="33">
+      <c r="D81" s="44"/>
+      <c r="E81" s="41">
         <f>700*inflation_factor^13</f>
-        <v>905.52464131765726</v>
+        <v>928.88015687327959</v>
       </c>
       <c r="G81" t="s">
         <v>140</v>
       </c>
       <c r="H81" t="str">
         <f>TEXT(E81,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>905.52*(1+fringe_rate)</v>
+        <v>928.88*(1+fringe_rate)</v>
       </c>
       <c r="I81" t="str">
         <f>std_factor&amp;"*"&amp;H81</f>
-        <v>0.1*905.52*(1+fringe_rate)</v>
-      </c>
-      <c r="J81" s="46" t="str">
+        <v>0.1*928.88*(1+fringe_rate)</v>
+      </c>
+      <c r="J81" s="28" t="str">
         <f>"'"&amp;B81&amp;"'"&amp;": " &amp;G81&amp;H81&amp;", " &amp;I81&amp;"],"</f>
-        <v>'Equipment (Weight): ': [905.52*(1+fringe_rate), 0.1*905.52*(1+fringe_rate)],</v>
+        <v>'Equipment (Weight): ': [928.88*(1+fringe_rate), 0.1*928.88*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="35"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="32"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="35"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="32"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="35"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="32"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="42"/>
     </row>
     <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="35"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="34"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="35"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="33">
+      <c r="D86" s="44"/>
+      <c r="E86" s="41">
         <f>60*inflation_factor^13</f>
-        <v>77.616397827227772</v>
+        <v>79.618299160566821</v>
       </c>
       <c r="G86" t="s">
         <v>140</v>
       </c>
       <c r="H86" t="str">
         <f>TEXT(E86,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>77.62*(1+fringe_rate)</v>
+        <v>79.62*(1+fringe_rate)</v>
       </c>
       <c r="I86" t="str">
         <f>std_factor&amp;"*"&amp;H86</f>
-        <v>0.1*77.62*(1+fringe_rate)</v>
-      </c>
-      <c r="J86" s="46" t="str">
+        <v>0.1*79.62*(1+fringe_rate)</v>
+      </c>
+      <c r="J86" s="28" t="str">
         <f>"'"&amp;B86&amp;"'"&amp;": " &amp;G86&amp;H86&amp;", " &amp;I86&amp;"],"</f>
-        <v>'Equipment (Height):': [77.62*(1+fringe_rate), 0.1*77.62*(1+fringe_rate)],</v>
+        <v>'Equipment (Height):': [79.62*(1+fringe_rate), 0.1*79.62*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="35"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="37"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="47"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="35"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="37"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="47"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="35"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="37"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="47"/>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="28"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="5"/>
       <c r="C90" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D90" s="31"/>
-      <c r="E90" s="34"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="43"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="51" t="s">
         <v>83</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -2514,100 +2735,100 @@
       <c r="C91" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E91" s="33">
+      <c r="E91" s="41">
         <f>52*D91*inflation_factor</f>
-        <v>5438.1912000000002</v>
+        <v>5448.8543200000004</v>
       </c>
       <c r="G91" t="s">
         <v>140</v>
       </c>
       <c r="H91" t="str">
         <f>TEXT(E91,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>5438.19*(1+fringe_rate)</v>
+        <v>5448.85*(1+fringe_rate)</v>
       </c>
       <c r="I91" t="str">
         <f>std_factor&amp;"*"&amp;H91</f>
-        <v>0.1*5438.19*(1+fringe_rate)</v>
-      </c>
-      <c r="J91" s="46" t="str">
+        <v>0.1*5448.85*(1+fringe_rate)</v>
+      </c>
+      <c r="J91" s="28" t="str">
         <f>"'"&amp;B91&amp;"'"&amp;": " &amp;G91&amp;H91&amp;", " &amp;I91&amp;"],"</f>
-        <v>'Medical Director': [5438.19*(1+fringe_rate), 0.1*5438.19*(1+fringe_rate)],</v>
+        <v>'Medical Director': [5448.85*(1+fringe_rate), 0.1*5448.85*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="26"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="3"/>
       <c r="C92" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="29"/>
-      <c r="E92" s="32"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="26"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C93" s="6"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="32"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="42"/>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="28"/>
+      <c r="A94" s="53"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D94" s="31"/>
-      <c r="E94" s="34"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="43"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="27" t="s">
+      <c r="A95" s="51" t="s">
         <v>88</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D95" s="33">
+      <c r="D95" s="41">
         <v>3000</v>
       </c>
-      <c r="E95" s="33">
+      <c r="E95" s="41">
         <f>D95*inflation_factor^13</f>
-        <v>3880.8198913613883</v>
+        <v>3980.9149580283411</v>
       </c>
       <c r="G95" t="s">
         <v>140</v>
       </c>
       <c r="H95" t="str">
         <f>TEXT(E95,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>3880.82*(1+fringe_rate)</v>
+        <v>3980.91*(1+fringe_rate)</v>
       </c>
       <c r="I95" t="str">
         <f>std_factor&amp;"*"&amp;H95</f>
-        <v>0.1*3880.82*(1+fringe_rate)</v>
-      </c>
-      <c r="J95" s="46" t="str">
+        <v>0.1*3980.91*(1+fringe_rate)</v>
+      </c>
+      <c r="J95" s="28" t="str">
         <f>"'"&amp;B95&amp;"'"&amp;": " &amp;G95&amp;H95&amp;", " &amp;I95&amp;"],"</f>
-        <v>'Space:': [3880.82*(1+fringe_rate), 0.1*3880.82*(1+fringe_rate)],</v>
+        <v>'Space:': [3980.91*(1+fringe_rate), 0.1*3980.91*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="35"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="35"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="3" t="s">
         <v>92</v>
       </c>
@@ -2616,7 +2837,7 @@
       </c>
       <c r="E97" s="10">
         <f>C97*inflation_factor^13</f>
-        <v>1144.8418679516096</v>
+        <v>1174.3699126183606</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" t="s">
@@ -2624,19 +2845,19 @@
       </c>
       <c r="H97" t="str">
         <f>TEXT(E97,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1144.84*(1+fringe_rate)</v>
+        <v>1174.37*(1+fringe_rate)</v>
       </c>
       <c r="I97" t="str">
         <f>std_factor&amp;"*"&amp;H97</f>
-        <v>0.1*1144.84*(1+fringe_rate)</v>
-      </c>
-      <c r="J97" s="46" t="str">
+        <v>0.1*1174.37*(1+fringe_rate)</v>
+      </c>
+      <c r="J97" s="28" t="str">
         <f>"'"&amp;B97&amp;"'"&amp;": " &amp;G97&amp;H97&amp;", " &amp;I97&amp;"],"</f>
-        <v>'Cleaning Service': [1144.84*(1+fringe_rate), 0.1*1144.84*(1+fringe_rate)],</v>
+        <v>'Cleaning Service': [1174.37*(1+fringe_rate), 0.1*1174.37*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="28"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="17" t="s">
         <v>93</v>
       </c>
@@ -2645,7 +2866,7 @@
       </c>
       <c r="E98" s="19">
         <f>C98*inflation_factor^13</f>
-        <v>3751.4592283160086</v>
+        <v>3848.2177927607299</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" t="s">
@@ -2653,15 +2874,15 @@
       </c>
       <c r="H98" t="str">
         <f>TEXT(E98,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>3751.46*(1+fringe_rate)</v>
+        <v>3848.22*(1+fringe_rate)</v>
       </c>
       <c r="I98" t="str">
         <f>std_factor&amp;"*"&amp;H98</f>
-        <v>0.1*3751.46*(1+fringe_rate)</v>
-      </c>
-      <c r="J98" s="46" t="str">
+        <v>0.1*3848.22*(1+fringe_rate)</v>
+      </c>
+      <c r="J98" s="28" t="str">
         <f>"'"&amp;B98&amp;"'"&amp;": " &amp;G98&amp;H98&amp;", " &amp;I98&amp;"],"</f>
-        <v>'Clinic Equipment and Supplies ': [3751.46*(1+fringe_rate), 0.1*3751.46*(1+fringe_rate)],</v>
+        <v>'Clinic Equipment and Supplies ': [3848.22*(1+fringe_rate), 0.1*3848.22*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2673,7 +2894,7 @@
       <c r="D99" s="22"/>
       <c r="E99" s="23">
         <f>SUM(E5:E98)</f>
-        <v>78766.882893148388</v>
+        <v>79237.09815781613</v>
       </c>
     </row>
   </sheetData>
@@ -2708,6 +2929,7 @@
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="D57:D59"/>
     <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E26:E29"/>
     <mergeCell ref="A30:A48"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="E30:E34"/>
@@ -2718,28 +2940,27 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D16:D19"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="A5:A29"/>
     <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D26:D29"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2750,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090316C-733A-4FB0-9989-132A7989C4ED}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2773,33 +2994,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B1">
-        <v>0.02</v>
+      <c r="B1" s="63">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C1">
         <f>1+inflation</f>
-        <v>1.02</v>
+        <v>1.022</v>
       </c>
       <c r="H1">
         <v>0.1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="27" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="49" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2808,22 +3029,22 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="44"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="51" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2832,153 +3053,153 @@
       <c r="C5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="41">
         <f>(225+45)*D5*inflation_factor</f>
-        <v>14808.258000000002</v>
+        <v>14837.293800000001</v>
       </c>
       <c r="G5" t="s">
         <v>140</v>
       </c>
       <c r="H5" t="str">
         <f>TEXT(E5,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>14808.26*(1+fringe_rate)</v>
+        <v>14837.29*(1+fringe_rate)</v>
       </c>
       <c r="I5" t="str">
         <f>std_factor&amp;"*"&amp;H5</f>
-        <v>0.1*14808.26*(1+fringe_rate)</v>
-      </c>
-      <c r="J5" s="44" t="str">
+        <v>0.1*14837.29*(1+fringe_rate)</v>
+      </c>
+      <c r="J5" s="26" t="str">
         <f>"'"&amp;B5&amp;"'"&amp;": " &amp;G5&amp;H5&amp;", " &amp;I5&amp;"],"</f>
-        <v>'Nurse Practitioner': [14808.26*(1+fringe_rate), 0.1*14808.26*(1+fringe_rate)],</v>
+        <v>'Nurse Practitioner': [14837.29*(1+fringe_rate), 0.1*14837.29*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="32"/>
-      <c r="J6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="42"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="32"/>
-      <c r="J7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="42"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="32"/>
-      <c r="J8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="42"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="32"/>
-      <c r="J9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="32"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="42"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="32"/>
-      <c r="J11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="42"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="32"/>
-      <c r="J12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="42"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="4"/>
       <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="32"/>
-      <c r="J13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="42"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="4"/>
       <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="32"/>
-      <c r="J14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="42"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="32"/>
-      <c r="J15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="42"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="32"/>
-      <c r="J16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="42"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="28"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="5"/>
       <c r="C17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="34"/>
-      <c r="J17" s="44"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="43"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="51" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2987,163 +3208,163 @@
       <c r="C18" s="3">
         <v>-1</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="41">
         <f>(157.5+30)*D18*inflation_factor</f>
-        <v>5731.7624999999998</v>
+        <v>5743.0012500000003</v>
       </c>
       <c r="G18" t="s">
         <v>140</v>
       </c>
       <c r="H18" t="str">
         <f>TEXT(E18,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>5731.76*(1+fringe_rate)</v>
+        <v>5743.00*(1+fringe_rate)</v>
       </c>
       <c r="I18" t="str">
         <f>std_factor&amp;"*"&amp;H18</f>
-        <v>0.1*5731.76*(1+fringe_rate)</v>
-      </c>
-      <c r="J18" s="44" t="str">
+        <v>0.1*5743.00*(1+fringe_rate)</v>
+      </c>
+      <c r="J18" s="26" t="str">
         <f>"'"&amp;B18&amp;"'"&amp;": " &amp;G18&amp;H18&amp;", " &amp;I18&amp;"],"</f>
-        <v>'Registered Dietitian': [5731.76*(1+fringe_rate), 0.1*5731.76*(1+fringe_rate)],</v>
+        <v>'Registered Dietitian': [5743.00*(1+fringe_rate), 0.1*5743.00*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="32"/>
-      <c r="J19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="32"/>
-      <c r="J20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32"/>
-      <c r="J21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="32"/>
-      <c r="J22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="42"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="32"/>
-      <c r="J23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="42"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3">
         <v>-2</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="32"/>
-      <c r="J24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="32"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="42"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="4"/>
       <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="32"/>
-      <c r="J26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="42"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="4"/>
       <c r="C27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="32"/>
-      <c r="J27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="42"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="4"/>
       <c r="C28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="32"/>
-      <c r="J28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="42"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="4"/>
       <c r="C29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="32"/>
-      <c r="J29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="42"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="32"/>
-      <c r="J30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="42"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="28"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="34"/>
-      <c r="J31" s="44"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="43"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="51" t="s">
         <v>116</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3152,346 +3373,346 @@
       <c r="C32" s="11">
         <v>-1</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="41">
         <f>(150+30)*D32*inflation_factor</f>
-        <v>4448.6279999999997</v>
+        <v>4457.3508000000002</v>
       </c>
       <c r="G32" t="s">
         <v>140</v>
       </c>
       <c r="H32" t="str">
         <f>TEXT(E32,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>4448.63*(1+fringe_rate)</v>
+        <v>4457.35*(1+fringe_rate)</v>
       </c>
       <c r="I32" t="str">
         <f>std_factor&amp;"*"&amp;H32</f>
-        <v>0.1*4448.63*(1+fringe_rate)</v>
-      </c>
-      <c r="J32" s="44" t="str">
+        <v>0.1*4457.35*(1+fringe_rate)</v>
+      </c>
+      <c r="J32" s="26" t="str">
         <f>"'"&amp;B32&amp;"'"&amp;": " &amp;G32&amp;H32&amp;", " &amp;I32&amp;"],"</f>
-        <v>'Social Worker (Behavioral visit)': [4448.63*(1+fringe_rate), 0.1*4448.63*(1+fringe_rate)],</v>
+        <v>'Social Worker (Behavioral visit)': [4457.35*(1+fringe_rate), 0.1*4457.35*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="35"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="J33" s="44"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="47"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="J34" s="44"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="47"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="35"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="J35" s="44"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="47"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="35"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="J36" s="44"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="47"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="54"/>
+      <c r="B37" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="47"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="J38" s="44"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="47"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3">
         <v>-2</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="J39" s="44"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="4"/>
       <c r="C40" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="J40" s="44"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="47"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="4"/>
       <c r="C41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="J41" s="44"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="47"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="4"/>
       <c r="C42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="J42" s="44"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="47"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="4"/>
       <c r="C43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="J43" s="44"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="47"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="35"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="4"/>
       <c r="C44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="J44" s="44"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="47"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="J45" s="44"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="47"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="28"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="5"/>
       <c r="C46" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="34"/>
-      <c r="J46" s="44"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="43"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="41">
         <f>(30+90)*D47*inflation_factor</f>
-        <v>2241.1439999999998</v>
+        <v>2245.5383999999999</v>
       </c>
       <c r="G47" t="s">
         <v>140</v>
       </c>
       <c r="H47" t="str">
         <f>TEXT(E47,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>2241.14*(1+fringe_rate)</v>
+        <v>2245.54*(1+fringe_rate)</v>
       </c>
       <c r="I47" t="str">
         <f>std_factor&amp;"*"&amp;H47</f>
-        <v>0.1*2241.14*(1+fringe_rate)</v>
-      </c>
-      <c r="J47" s="44" t="str">
+        <v>0.1*2245.54*(1+fringe_rate)</v>
+      </c>
+      <c r="J47" s="26" t="str">
         <f>"'"&amp;B47&amp;"'"&amp;": " &amp;G47&amp;H47&amp;", " &amp;I47&amp;"],"</f>
-        <v>'Department Clinical Secretary': [2241.14*(1+fringe_rate), 0.1*2241.14*(1+fringe_rate)],</v>
+        <v>'Department Clinical Secretary': [2245.54*(1+fringe_rate), 0.1*2245.54*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="26"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="3"/>
       <c r="C48" s="6">
         <v>-1</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="32"/>
-      <c r="J48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="42"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A49" s="26"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="32"/>
-      <c r="J49" s="44"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="42"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="26"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="32"/>
-      <c r="J50" s="44"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="42"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="26"/>
-      <c r="B51" s="42" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="24" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="32"/>
-      <c r="J51" s="44"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="42"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="26"/>
-      <c r="B52" s="42" t="s">
+      <c r="A52" s="52"/>
+      <c r="B52" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="32"/>
-      <c r="J52" s="44"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="42"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="26"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="32"/>
-      <c r="J53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="42"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="26"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3">
         <v>-2</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="32"/>
-      <c r="J54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="42"/>
+      <c r="J54" s="26"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="26"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="32"/>
-      <c r="J55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="42"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="26"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="4"/>
       <c r="C56" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="32"/>
-      <c r="J56" s="44"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="42"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="26"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="4"/>
       <c r="C57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="32"/>
-      <c r="J57" s="44"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="42"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="26"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="32"/>
-      <c r="J58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="42"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="26"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="4"/>
       <c r="C59" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="32"/>
-      <c r="J59" s="44"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="42"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="26"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="32"/>
-      <c r="J60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="42"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="28"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="34"/>
-      <c r="J61" s="44"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="43"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="51" t="s">
         <v>128</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -3500,83 +3721,83 @@
       <c r="C62" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="41">
         <v>23.61</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="41">
         <f>(60)*D62*inflation_factor</f>
-        <v>1444.932</v>
+        <v>1447.7651999999998</v>
       </c>
       <c r="G62" t="s">
         <v>140</v>
       </c>
       <c r="H62" t="str">
         <f>TEXT(E62,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1444.93*(1+fringe_rate)</v>
+        <v>1447.77*(1+fringe_rate)</v>
       </c>
       <c r="I62" t="str">
         <f>std_factor&amp;"*"&amp;H62</f>
-        <v>0.1*1444.93*(1+fringe_rate)</v>
-      </c>
-      <c r="J62" s="44" t="str">
+        <v>0.1*1447.77*(1+fringe_rate)</v>
+      </c>
+      <c r="J62" s="26" t="str">
         <f>"'"&amp;B62&amp;"'"&amp;": " &amp;G62&amp;H62&amp;", " &amp;I62&amp;"],"</f>
-        <v>'Technician': [1444.93*(1+fringe_rate), 0.1*1444.93*(1+fringe_rate)],</v>
+        <v>'Technician': [1447.77*(1+fringe_rate), 0.1*1447.77*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="35"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="3"/>
       <c r="C63" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="J63" s="44"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="35"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="J64" s="44"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="35"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="3"/>
       <c r="C65" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="J65" s="44"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="35"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="J66" s="44"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="28"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="5"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="J67" s="44"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="51" t="s">
         <v>132</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -3585,126 +3806,126 @@
       <c r="C68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="41">
         <f>(120)*D68*inflation_factor</f>
-        <v>12549.672</v>
+        <v>12574.279200000001</v>
       </c>
       <c r="G68" t="s">
         <v>140</v>
       </c>
       <c r="H68" t="str">
         <f>TEXT(E68,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>12549.67*(1+fringe_rate)</v>
+        <v>12574.28*(1+fringe_rate)</v>
       </c>
       <c r="I68" t="str">
         <f>std_factor&amp;"*"&amp;H68</f>
-        <v>0.1*12549.67*(1+fringe_rate)</v>
-      </c>
-      <c r="J68" s="44" t="str">
+        <v>0.1*12574.28*(1+fringe_rate)</v>
+      </c>
+      <c r="J68" s="26" t="str">
         <f>"'"&amp;B68&amp;"'"&amp;": " &amp;G68&amp;H68&amp;", " &amp;I68&amp;"],"</f>
-        <v>'Medical Director': [12549.67*(1+fringe_rate), 0.1*12549.67*(1+fringe_rate)],</v>
+        <v>'Medical Director': [12574.28*(1+fringe_rate), 0.1*12574.28*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="26"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="32"/>
-      <c r="J69" s="44"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="42"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="26"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="32"/>
-      <c r="J70" s="44"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="42"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="26"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="32"/>
-      <c r="J71" s="44"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="42"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="26"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="32"/>
-      <c r="J72" s="44"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="42"/>
+      <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="28"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="34"/>
-      <c r="J73" s="44"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="43"/>
+      <c r="J73" s="26"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="51" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D74" s="41">
         <v>3000</v>
       </c>
-      <c r="E74" s="33">
+      <c r="E74" s="41">
         <f>D74*inflation_factor^13</f>
-        <v>3880.8198913613883</v>
+        <v>3980.9149580283411</v>
       </c>
       <c r="G74" t="s">
         <v>140</v>
       </c>
       <c r="H74" t="str">
         <f>TEXT(E74,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>3880.82*(1+fringe_rate)</v>
+        <v>3980.91*(1+fringe_rate)</v>
       </c>
       <c r="I74" t="str">
         <f>std_factor&amp;"*"&amp;H74</f>
-        <v>0.1*3880.82*(1+fringe_rate)</v>
-      </c>
-      <c r="J74" s="44" t="str">
+        <v>0.1*3980.91*(1+fringe_rate)</v>
+      </c>
+      <c r="J74" s="26" t="str">
         <f>"'"&amp;B74&amp;"'"&amp;": " &amp;G74&amp;H74&amp;", " &amp;I74&amp;"],"</f>
-        <v>'Space:': [3880.82*(1+fringe_rate), 0.1*3880.82*(1+fringe_rate)],</v>
+        <v>'Space:': [3980.91*(1+fringe_rate), 0.1*3980.91*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="35"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="J75" s="44"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="35"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="3" t="s">
         <v>92</v>
       </c>
@@ -3713,26 +3934,26 @@
       </c>
       <c r="E76" s="10">
         <f>C76*inflation_factor^13</f>
-        <v>1144.8418679516096</v>
+        <v>1174.3699126183606</v>
       </c>
       <c r="G76" t="s">
         <v>140</v>
       </c>
       <c r="H76" t="str">
         <f>TEXT(E76,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1144.84*(1+fringe_rate)</v>
+        <v>1174.37*(1+fringe_rate)</v>
       </c>
       <c r="I76" t="str">
         <f>std_factor&amp;"*"&amp;H76</f>
-        <v>0.1*1144.84*(1+fringe_rate)</v>
-      </c>
-      <c r="J76" s="44" t="str">
+        <v>0.1*1174.37*(1+fringe_rate)</v>
+      </c>
+      <c r="J76" s="26" t="str">
         <f>"'"&amp;B76&amp;"'"&amp;": " &amp;G76&amp;H76&amp;", " &amp;I76&amp;"],"</f>
-        <v>'Cleaning Service': [1144.84*(1+fringe_rate), 0.1*1144.84*(1+fringe_rate)],</v>
+        <v>'Cleaning Service': [1174.37*(1+fringe_rate), 0.1*1174.37*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="28"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="17" t="s">
         <v>93</v>
       </c>
@@ -3741,22 +3962,22 @@
       </c>
       <c r="E77" s="19">
         <f>C77*inflation_factor^13</f>
-        <v>3751.4592283160086</v>
+        <v>3848.2177927607299</v>
       </c>
       <c r="G77" t="s">
         <v>140</v>
       </c>
       <c r="H77" t="str">
         <f>TEXT(E77,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>3751.46*(1+fringe_rate)</v>
+        <v>3848.22*(1+fringe_rate)</v>
       </c>
       <c r="I77" t="str">
         <f>std_factor&amp;"*"&amp;H77</f>
-        <v>0.1*3751.46*(1+fringe_rate)</v>
-      </c>
-      <c r="J77" s="44" t="str">
+        <v>0.1*3848.22*(1+fringe_rate)</v>
+      </c>
+      <c r="J77" s="26" t="str">
         <f>"'"&amp;B77&amp;"'"&amp;": " &amp;G77&amp;H77&amp;", " &amp;I77&amp;"],"</f>
-        <v>'Clinic Equipment and Supplies ': [3751.46*(1+fringe_rate), 0.1*3751.46*(1+fringe_rate)],</v>
+        <v>'Clinic Equipment and Supplies ': [3848.22*(1+fringe_rate), 0.1*3848.22*(1+fringe_rate)],</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3768,7 +3989,7 @@
       <c r="D78" s="22"/>
       <c r="E78" s="23">
         <f>SUM(E5:E77)</f>
-        <v>50001.517487629011</v>
+        <v>50308.731313407436</v>
       </c>
     </row>
   </sheetData>
@@ -3783,23 +4004,718 @@
     <mergeCell ref="E68:E73"/>
     <mergeCell ref="A62:A67"/>
     <mergeCell ref="D62:D67"/>
+    <mergeCell ref="E18:E31"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="E5:E17"/>
     <mergeCell ref="D47:D61"/>
     <mergeCell ref="E47:E61"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="D32:D46"/>
     <mergeCell ref="E32:E46"/>
     <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A18:A31"/>
-    <mergeCell ref="D18:D31"/>
-    <mergeCell ref="E18:E31"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="E5:E17"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="D18:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03D4AB-A7D8-4588-8CC8-AB5DB713E018}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="I29:J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="31">
+        <v>16.811</v>
+      </c>
+      <c r="C3" s="39">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D3" s="31">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E3" s="31">
+        <v>28.4</v>
+      </c>
+      <c r="F3" s="31">
+        <v>21.7</v>
+      </c>
+      <c r="G3" s="31">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="31">
+        <v>38.676000000000002</v>
+      </c>
+      <c r="C4" s="39">
+        <v>44.4</v>
+      </c>
+      <c r="D4" s="31">
+        <v>41.2</v>
+      </c>
+      <c r="E4" s="31">
+        <v>58.1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>46.6</v>
+      </c>
+      <c r="G4" s="31">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="36">
+        <v>1996</v>
+      </c>
+      <c r="B5" s="31">
+        <v>64.734999999999999</v>
+      </c>
+      <c r="C5" s="39">
+        <v>64.7</v>
+      </c>
+      <c r="D5" s="31">
+        <v>62.1</v>
+      </c>
+      <c r="E5" s="31">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F5" s="31">
+        <v>66.8</v>
+      </c>
+      <c r="G5" s="31">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="36">
+        <v>1997</v>
+      </c>
+      <c r="B6" s="31">
+        <v>65.994</v>
+      </c>
+      <c r="C6" s="39">
+        <v>65.8</v>
+      </c>
+      <c r="D6" s="31">
+        <v>62.6</v>
+      </c>
+      <c r="E6" s="31">
+        <v>76.2</v>
+      </c>
+      <c r="F6" s="31">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="G6" s="31">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="36">
+        <v>1998</v>
+      </c>
+      <c r="B7" s="31">
+        <v>67.281999999999996</v>
+      </c>
+      <c r="C7" s="39">
+        <v>67.2</v>
+      </c>
+      <c r="D7" s="31">
+        <v>63.1</v>
+      </c>
+      <c r="E7" s="31">
+        <v>77.8</v>
+      </c>
+      <c r="F7" s="31">
+        <v>70.8</v>
+      </c>
+      <c r="G7" s="31">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="36">
+        <v>1999</v>
+      </c>
+      <c r="B8" s="31">
+        <v>68.917000000000002</v>
+      </c>
+      <c r="C8" s="39">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D8" s="31">
+        <v>64.2</v>
+      </c>
+      <c r="E8" s="31">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="F8" s="31">
+        <v>72.3</v>
+      </c>
+      <c r="G8" s="31">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="36">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="31">
+        <v>70.933999999999997</v>
+      </c>
+      <c r="C9" s="39">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="D9" s="31">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="E9" s="31">
+        <v>80.7</v>
+      </c>
+      <c r="F9" s="31">
+        <v>73.7</v>
+      </c>
+      <c r="G9" s="31">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="36">
+        <v>2001</v>
+      </c>
+      <c r="B10" s="31">
+        <v>73.427999999999997</v>
+      </c>
+      <c r="C10" s="39">
+        <v>73.5</v>
+      </c>
+      <c r="D10" s="31">
+        <v>68.2</v>
+      </c>
+      <c r="E10" s="31">
+        <v>83.1</v>
+      </c>
+      <c r="F10" s="31">
+        <v>76.2</v>
+      </c>
+      <c r="G10" s="31">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="36">
+        <v>2002</v>
+      </c>
+      <c r="B11" s="31">
+        <v>75.468999999999994</v>
+      </c>
+      <c r="C11" s="39">
+        <v>75.7</v>
+      </c>
+      <c r="D11" s="31">
+        <v>71.3</v>
+      </c>
+      <c r="E11" s="31">
+        <v>83.1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>78.2</v>
+      </c>
+      <c r="G11" s="31">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="36">
+        <v>2003</v>
+      </c>
+      <c r="B12" s="31">
+        <v>78.155000000000001</v>
+      </c>
+      <c r="C12" s="39">
+        <v>78.2</v>
+      </c>
+      <c r="D12" s="31">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E12" s="31">
+        <v>84.5</v>
+      </c>
+      <c r="F12" s="31">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G12" s="31">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="36">
+        <v>2004</v>
+      </c>
+      <c r="B13" s="31">
+        <v>80.903999999999996</v>
+      </c>
+      <c r="C13" s="39">
+        <v>81</v>
+      </c>
+      <c r="D13" s="31">
+        <v>78</v>
+      </c>
+      <c r="E13" s="31">
+        <v>86.2</v>
+      </c>
+      <c r="F13" s="31">
+        <v>82.8</v>
+      </c>
+      <c r="G13" s="31">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="36">
+        <v>2005</v>
+      </c>
+      <c r="B14" s="31">
+        <v>83.412999999999997</v>
+      </c>
+      <c r="C14" s="39">
+        <v>83.5</v>
+      </c>
+      <c r="D14" s="31">
+        <v>81</v>
+      </c>
+      <c r="E14" s="31">
+        <v>87.9</v>
+      </c>
+      <c r="F14" s="31">
+        <v>85.1</v>
+      </c>
+      <c r="G14" s="31">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="36">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="31">
+        <v>86.049000000000007</v>
+      </c>
+      <c r="C15" s="39">
+        <v>86</v>
+      </c>
+      <c r="D15" s="31">
+        <v>84.5</v>
+      </c>
+      <c r="E15" s="31">
+        <v>88.7</v>
+      </c>
+      <c r="F15" s="31">
+        <v>87.5</v>
+      </c>
+      <c r="G15" s="31">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="36">
+        <v>2007</v>
+      </c>
+      <c r="B16" s="31">
+        <v>88.866</v>
+      </c>
+      <c r="C16" s="39">
+        <v>88.8</v>
+      </c>
+      <c r="D16" s="31">
+        <v>87.4</v>
+      </c>
+      <c r="E16" s="31">
+        <v>92.2</v>
+      </c>
+      <c r="F16" s="31">
+        <v>89.9</v>
+      </c>
+      <c r="G16" s="31">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="36">
+        <v>2008</v>
+      </c>
+      <c r="B17" s="31">
+        <v>91.161000000000001</v>
+      </c>
+      <c r="C17" s="39">
+        <v>91.2</v>
+      </c>
+      <c r="D17" s="31">
+        <v>90.1</v>
+      </c>
+      <c r="E17" s="31">
+        <v>93.2</v>
+      </c>
+      <c r="F17" s="31">
+        <v>93.6</v>
+      </c>
+      <c r="G17" s="31">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="36">
+        <v>2009</v>
+      </c>
+      <c r="B18" s="31">
+        <v>93.668999999999997</v>
+      </c>
+      <c r="C18" s="39">
+        <v>93.7</v>
+      </c>
+      <c r="D18" s="31">
+        <v>92.8</v>
+      </c>
+      <c r="E18" s="31">
+        <v>95.3</v>
+      </c>
+      <c r="F18" s="31">
+        <v>95.5</v>
+      </c>
+      <c r="G18" s="31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="36">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="31">
+        <v>96.108000000000004</v>
+      </c>
+      <c r="C19" s="39">
+        <v>96.2</v>
+      </c>
+      <c r="D19" s="31">
+        <v>95.5</v>
+      </c>
+      <c r="E19" s="31">
+        <v>97.5</v>
+      </c>
+      <c r="F19" s="31">
+        <v>97.6</v>
+      </c>
+      <c r="G19" s="31">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="36">
+        <v>2011</v>
+      </c>
+      <c r="B20" s="31">
+        <v>98.058000000000007</v>
+      </c>
+      <c r="C20" s="39">
+        <v>98.2</v>
+      </c>
+      <c r="D20" s="31">
+        <v>97.6</v>
+      </c>
+      <c r="E20" s="31">
+        <v>98.9</v>
+      </c>
+      <c r="F20" s="31">
+        <v>99</v>
+      </c>
+      <c r="G20" s="31">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="36">
+        <v>2012</v>
+      </c>
+      <c r="B21" s="31">
+        <v>100</v>
+      </c>
+      <c r="C21" s="39">
+        <v>100</v>
+      </c>
+      <c r="D21" s="31">
+        <v>100</v>
+      </c>
+      <c r="E21" s="31">
+        <v>100</v>
+      </c>
+      <c r="F21" s="31">
+        <v>100</v>
+      </c>
+      <c r="G21" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="36">
+        <v>2013</v>
+      </c>
+      <c r="B22" s="31">
+        <v>101.22799999999999</v>
+      </c>
+      <c r="C22" s="39">
+        <v>101.5</v>
+      </c>
+      <c r="D22" s="31">
+        <v>102.2</v>
+      </c>
+      <c r="E22" s="31">
+        <v>100.1</v>
+      </c>
+      <c r="F22" s="31">
+        <v>101.7</v>
+      </c>
+      <c r="G22" s="31">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="36">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="31">
+        <v>102.63500000000001</v>
+      </c>
+      <c r="C23" s="39">
+        <v>102.9</v>
+      </c>
+      <c r="D23" s="31">
+        <v>103.5</v>
+      </c>
+      <c r="E23" s="31">
+        <v>100.6</v>
+      </c>
+      <c r="F23" s="31">
+        <v>103.1</v>
+      </c>
+      <c r="G23" s="31">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="36">
+        <v>2015</v>
+      </c>
+      <c r="B24" s="31">
+        <v>103.77200000000001</v>
+      </c>
+      <c r="C24" s="39">
+        <v>103.5</v>
+      </c>
+      <c r="D24" s="31">
+        <v>104.5</v>
+      </c>
+      <c r="E24" s="31">
+        <v>99.5</v>
+      </c>
+      <c r="F24" s="31">
+        <v>103.9</v>
+      </c>
+      <c r="G24" s="31">
+        <v>108.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="36">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="31">
+        <v>105.43</v>
+      </c>
+      <c r="C25" s="39">
+        <v>104.7</v>
+      </c>
+      <c r="D25" s="31">
+        <v>105.7</v>
+      </c>
+      <c r="E25" s="31">
+        <v>99.7</v>
+      </c>
+      <c r="F25" s="31">
+        <v>105.2</v>
+      </c>
+      <c r="G25" s="31">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="36">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="31">
+        <v>107.23</v>
+      </c>
+      <c r="C26" s="39">
+        <v>106.1</v>
+      </c>
+      <c r="D26" s="31">
+        <v>107.5</v>
+      </c>
+      <c r="E26" s="31">
+        <v>100.2</v>
+      </c>
+      <c r="F26" s="31">
+        <v>107.7</v>
+      </c>
+      <c r="G26" s="31">
+        <v>113.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="36">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="31">
+        <v>109.1</v>
+      </c>
+      <c r="C27" s="39">
+        <v>107.6</v>
+      </c>
+      <c r="D27" s="31">
+        <v>110.1</v>
+      </c>
+      <c r="E27" s="31">
+        <v>100.9</v>
+      </c>
+      <c r="F27" s="31">
+        <v>108.1</v>
+      </c>
+      <c r="G27" s="31">
+        <v>116.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="31">
+        <v>110.64700000000001</v>
+      </c>
+      <c r="C28" s="39">
+        <v>109.2</v>
+      </c>
+      <c r="D28" s="31">
+        <v>112.3</v>
+      </c>
+      <c r="E28" s="31">
+        <v>101.7</v>
+      </c>
+      <c r="F28" s="31">
+        <v>108.9</v>
+      </c>
+      <c r="G28" s="31">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="31">
+        <v>112.97799999999999</v>
+      </c>
+      <c r="C29" s="39">
+        <v>111.6</v>
+      </c>
+      <c r="D29" s="31">
+        <v>115.9</v>
+      </c>
+      <c r="E29" s="31">
+        <v>102.9</v>
+      </c>
+      <c r="F29" s="31">
+        <v>110.2</v>
+      </c>
+      <c r="G29" s="31">
+        <v>122.4</v>
+      </c>
+      <c r="I29" s="40">
+        <f>C29/C28-1</f>
+        <v>2.19780219780219E-2</v>
+      </c>
+      <c r="J29" s="40">
+        <f>POWER(D29/D16,1/13)-1</f>
+        <v>2.1947570742111067E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" location="t3ast" display="https://www.meps.ahrq.gov/about_meps/Price_Index.shtml - t3ast" xr:uid="{E35984E8-3C71-45DD-8917-DAAB6EA2F93D}"/>
+    <hyperlink ref="A4" r:id="rId2" location="t3ast" display="https://www.meps.ahrq.gov/about_meps/Price_Index.shtml - t3ast" xr:uid="{8D113EB0-2E7A-49CD-9966-B0AAA764C0A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
 </file>
--- a/bright_bodies_support/Cost items.xlsx
+++ b/bright_bodies_support/Cost items.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry87\PycharmProjects\ObesityModel\bright_bodies_support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B614B-0737-41B4-BA56-3196A0D0EF84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14B9A3-BAD7-46F4-94CF-342B8E3AEC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BB" sheetId="1" r:id="rId1"/>
     <sheet name="CC" sheetId="3" r:id="rId2"/>
     <sheet name="inflation" sheetId="4" r:id="rId3"/>
+    <sheet name="Pooled estimates" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="inflation" localSheetId="1">CC!$B$1</definedName>
     <definedName name="inflation">BB!$B$1</definedName>
     <definedName name="inflation_factor" localSheetId="1">CC!$C$1</definedName>
     <definedName name="inflation_factor">BB!$C$1</definedName>
-    <definedName name="std_factor" localSheetId="1">CC!$H$1</definedName>
-    <definedName name="std_factor">BB!$H$1</definedName>
+    <definedName name="std_factor" localSheetId="1">CC!$I$1</definedName>
+    <definedName name="std_factor">BB!$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="173">
   <si>
     <t>Cost Item</t>
   </si>
@@ -606,16 +607,50 @@
   <si>
     <t>1987*</t>
   </si>
+  <si>
+    <t>Fringe?</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>N2/N1</t>
+  </si>
+  <si>
+    <t>SE^2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +739,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -731,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -876,12 +918,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -991,6 +1042,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1000,19 +1082,25 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,30 +1109,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1057,7 +1121,34 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1339,56 +1430,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.08984375" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="68.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="75.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="68.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="75.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="63">
+      <c r="B1" s="45">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="C1">
         <f>1+inflation</f>
         <v>1.022</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J2" s="29" t="s">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="62" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1397,22 +1488,26 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="F3" s="68"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
+      <c r="F4" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1421,462 +1516,491 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="52">
         <f>208*D5*inflation_factor</f>
         <v>5595.0003200000001</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>140</v>
       </c>
-      <c r="H5" t="str">
-        <f>TEXT(E5,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I5" s="9" t="str">
+        <f>TEXT(E5,"#.00") &amp; IF(F5,"*(1+fringe_rate)","")</f>
         <v>5595.00*(1+fringe_rate)</v>
       </c>
-      <c r="I5" t="str">
-        <f>std_factor&amp;"*"&amp;H5</f>
+      <c r="J5" t="str">
+        <f>std_factor&amp;"*"&amp;I5</f>
         <v>0.1*5595.00*(1+fringe_rate)</v>
       </c>
-      <c r="J5" s="28" t="str">
-        <f>"'"&amp;B5&amp;"'"&amp;": " &amp;G5&amp;H5&amp;", " &amp;I5&amp;"],"</f>
+      <c r="K5" s="28" t="str">
+        <f>"'"&amp;B5&amp;"'"&amp;": " &amp;H5&amp;I5&amp;", " &amp;J5&amp;"],"</f>
         <v>'Exercise Physiologist A': [5595.00*(1+fringe_rate), 0.1*5595.00*(1+fringe_rate)],</v>
       </c>
-      <c r="L5" s="26" t="str">
-        <f>J5</f>
+      <c r="M5" s="26" t="str">
+        <f>K5</f>
         <v>'Exercise Physiologist A': [5595.00*(1+fringe_rate), 0.1*5595.00*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="42"/>
-      <c r="L6" s="26" t="str">
-        <f>J9</f>
+      <c r="D6" s="50"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="41"/>
+      <c r="M6" s="26" t="str">
+        <f>K9</f>
         <v>'Exercise Physiologist B': [6993.75*(1+fringe_rate), 0.1*6993.75*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="52"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="42"/>
-      <c r="L7" s="26" t="str">
-        <f>J13</f>
-        <v>'Games and Equipment:': [2521.25*(1+fringe_rate), 0.1*2521.25*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="41"/>
+      <c r="M7" s="26" t="str">
+        <f>K13</f>
+        <v>'Games and Equipment:': [2521.25, 0.1*2521.25],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="43"/>
-      <c r="L8" s="26" t="str">
-        <f>J16</f>
-        <v>'Motivational Tools:': [318.47*(1+fringe_rate), 0.1*318.47*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="52"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="42"/>
+      <c r="M8" s="26" t="str">
+        <f>K16</f>
+        <v>'Motivational Tools:': [318.47, 0.1*318.47],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="52">
         <f>260*D9*inflation_factor</f>
         <v>6993.7503999999999</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>140</v>
       </c>
-      <c r="H9" t="str">
-        <f>TEXT(E9,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I9" s="9" t="str">
+        <f>TEXT(E9,"#.00") &amp; IF(F9,"*(1+fringe_rate)","")</f>
         <v>6993.75*(1+fringe_rate)</v>
       </c>
-      <c r="I9" t="str">
-        <f>std_factor&amp;"*"&amp;H9</f>
+      <c r="J9" t="str">
+        <f>std_factor&amp;"*"&amp;I9</f>
         <v>0.1*6993.75*(1+fringe_rate)</v>
       </c>
-      <c r="J9" s="28" t="str">
-        <f>"'"&amp;B9&amp;"'"&amp;": " &amp;G9&amp;H9&amp;", " &amp;I9&amp;"],"</f>
+      <c r="K9" s="28" t="str">
+        <f>"'"&amp;B9&amp;"'"&amp;": " &amp;H9&amp;I9&amp;", " &amp;J9&amp;"],"</f>
         <v>'Exercise Physiologist B': [6993.75*(1+fringe_rate), 0.1*6993.75*(1+fringe_rate)],</v>
       </c>
-      <c r="L9" s="26" t="str">
-        <f>J20</f>
-        <v>'Printed Materials (Exercise Session)': [33.17*(1+fringe_rate), 0.1*33.17*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
+      <c r="M9" s="26" t="str">
+        <f>K20</f>
+        <v>'Printed Materials (Exercise Session)': [33.17, 0.1*33.17],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="L10" s="26" t="str">
-        <f>J23</f>
-        <v>'Gym Room and Utilities': [10400.00*(1+fringe_rate), 0.1*10400.00*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="41"/>
+      <c r="M10" s="26" t="str">
+        <f>K23</f>
+        <v>'Gym Room and Utilities': [10400.00, 0.1*10400.00],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="42"/>
-      <c r="L11" s="26" t="str">
-        <f>J26</f>
-        <v>'First Aid Kit': [199.05*(1+fringe_rate), 0.1*199.05*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="52"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="41"/>
+      <c r="M11" s="26" t="str">
+        <f>K26</f>
+        <v>'First Aid Kit': [199.05, 0.1*199.05],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="43"/>
-      <c r="L12" s="26" t="str">
-        <f>J30</f>
+      <c r="D12" s="51"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="42"/>
+      <c r="M12" s="26" t="str">
+        <f>K30</f>
         <v>'Registered Dietitian A': [1592.73*(1+fringe_rate), 0.1*1592.73*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
       <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="52">
         <v>1900</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="41">
+      <c r="D13" s="49"/>
+      <c r="E13" s="52">
         <f>C13*inflation_factor^13</f>
         <v>2521.2461400846159</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="42"/>
+      <c r="H13" t="s">
         <v>140</v>
       </c>
-      <c r="H13" t="str">
-        <f>TEXT(E13,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>2521.25*(1+fringe_rate)</v>
-      </c>
-      <c r="I13" t="str">
-        <f>std_factor&amp;"*"&amp;H13</f>
-        <v>0.1*2521.25*(1+fringe_rate)</v>
-      </c>
-      <c r="J13" s="28" t="str">
-        <f>"'"&amp;B13&amp;"'"&amp;": " &amp;G13&amp;H13&amp;", " &amp;I13&amp;"],"</f>
-        <v>'Games and Equipment:': [2521.25*(1+fringe_rate), 0.1*2521.25*(1+fringe_rate)],</v>
-      </c>
-      <c r="L13" s="26" t="str">
-        <f>J35</f>
+      <c r="I13" s="9" t="str">
+        <f>TEXT(E13,"#.00") &amp; IF(F13,"*(1+fringe_rate)","")</f>
+        <v>2521.25</v>
+      </c>
+      <c r="J13" t="str">
+        <f>std_factor&amp;"*"&amp;I13</f>
+        <v>0.1*2521.25</v>
+      </c>
+      <c r="K13" s="28" t="str">
+        <f>"'"&amp;B13&amp;"'"&amp;": " &amp;H13&amp;I13&amp;", " &amp;J13&amp;"],"</f>
+        <v>'Games and Equipment:': [2521.25, 0.1*2521.25],</v>
+      </c>
+      <c r="M13" s="26" t="str">
+        <f>K35</f>
         <v>'Registered Dietitian B': [4778.18*(1+fringe_rate), 0.1*4778.18*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="47"/>
-      <c r="L14" s="26" t="str">
-        <f>J40</f>
+      <c r="C14" s="57"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="42"/>
+      <c r="M14" s="26" t="str">
+        <f>K40</f>
         <v>'Social Worker (Nutrition Session)': [1287.68*(1+fringe_rate), 0.1*1287.68*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="52"/>
+    <row r="15" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47"/>
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="43"/>
-      <c r="L15" s="26" t="str">
-        <f>J45</f>
-        <v>'Educational Tools ': [1791.41*(1+fringe_rate), 0.1*1791.41*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="42"/>
+      <c r="M15" s="26" t="str">
+        <f>K45</f>
+        <v>'Educational Tools ': [1791.41, 0.1*1791.41],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="41">
+      <c r="D16" s="49"/>
+      <c r="E16" s="52">
         <f>240*inflation_factor^13</f>
         <v>318.47319664226728</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" s="42"/>
+      <c r="H16" t="s">
         <v>140</v>
       </c>
-      <c r="H16" t="str">
-        <f>TEXT(E16,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>318.47*(1+fringe_rate)</v>
-      </c>
-      <c r="I16" t="str">
-        <f>std_factor&amp;"*"&amp;H16</f>
-        <v>0.1*318.47*(1+fringe_rate)</v>
-      </c>
-      <c r="J16" s="28" t="str">
-        <f>"'"&amp;B16&amp;"'"&amp;": " &amp;G16&amp;H16&amp;", " &amp;I16&amp;"],"</f>
-        <v>'Motivational Tools:': [318.47*(1+fringe_rate), 0.1*318.47*(1+fringe_rate)],</v>
-      </c>
-      <c r="L16" s="26" t="str">
-        <f>J46</f>
-        <v>'Classroom and Utilities (Nutrition Session)': [2600.00*(1+fringe_rate), 0.1*2600.00*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
+      <c r="I16" s="9" t="str">
+        <f>TEXT(E16,"#.00") &amp; IF(F16,"*(1+fringe_rate)","")</f>
+        <v>318.47</v>
+      </c>
+      <c r="J16" t="str">
+        <f>std_factor&amp;"*"&amp;I16</f>
+        <v>0.1*318.47</v>
+      </c>
+      <c r="K16" s="28" t="str">
+        <f>"'"&amp;B16&amp;"'"&amp;": " &amp;H16&amp;I16&amp;", " &amp;J16&amp;"],"</f>
+        <v>'Motivational Tools:': [318.47, 0.1*318.47],</v>
+      </c>
+      <c r="M16" s="26" t="str">
+        <f>K46</f>
+        <v>'Classroom and Utilities (Nutrition Session)': [2600.00, 0.1*2600.00],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="42"/>
-      <c r="L17" s="26" t="str">
-        <f>J49</f>
+      <c r="D17" s="50"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="41"/>
+      <c r="M17" s="26" t="str">
+        <f>K49</f>
         <v>'Social Worker (Parent Session)': [1287.68*(1+fringe_rate), 0.1*1287.68*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
       <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="42"/>
-      <c r="L18" s="26" t="str">
-        <f>J54</f>
-        <v>'Printed Materials (Parent Session)': [33.17*(1+fringe_rate), 0.1*33.17*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="52"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="41"/>
+      <c r="M18" s="26" t="str">
+        <f>K54</f>
+        <v>'Printed Materials (Parent Session)': [33.17, 0.1*33.17],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="43"/>
-      <c r="L19" s="26" t="str">
-        <f>J57</f>
-        <v>'Classroom and Utilities (Parent Session)': [2600.00*(1+fringe_rate), 0.1*2600.00*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="42"/>
+      <c r="M19" s="26" t="str">
+        <f>K57</f>
+        <v>'Classroom and Utilities (Parent Session)': [2600.00, 0.1*2600.00],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
       <c r="B20" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="46">
         <v>25</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="41">
+      <c r="D20" s="49"/>
+      <c r="E20" s="52">
         <f>C20*inflation_factor^13</f>
         <v>33.174291316902845</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" s="42"/>
+      <c r="H20" t="s">
         <v>140</v>
       </c>
-      <c r="H20" t="str">
-        <f>TEXT(E20,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>33.17*(1+fringe_rate)</v>
-      </c>
-      <c r="I20" t="str">
-        <f>std_factor&amp;"*"&amp;H20</f>
-        <v>0.1*33.17*(1+fringe_rate)</v>
-      </c>
-      <c r="J20" s="28" t="str">
-        <f>"'"&amp;B20&amp;"'"&amp;": " &amp;G20&amp;H20&amp;", " &amp;I20&amp;"],"</f>
-        <v>'Printed Materials (Exercise Session)': [33.17*(1+fringe_rate), 0.1*33.17*(1+fringe_rate)],</v>
-      </c>
-      <c r="L20" s="26" t="str">
-        <f>J60</f>
+      <c r="I20" s="9" t="str">
+        <f>TEXT(E20,"#.00") &amp; IF(F20,"*(1+fringe_rate)","")</f>
+        <v>33.17</v>
+      </c>
+      <c r="J20" t="str">
+        <f>std_factor&amp;"*"&amp;I20</f>
+        <v>0.1*33.17</v>
+      </c>
+      <c r="K20" s="28" t="str">
+        <f>"'"&amp;B20&amp;"'"&amp;": " &amp;H20&amp;I20&amp;", " &amp;J20&amp;"],"</f>
+        <v>'Printed Materials (Exercise Session)': [33.17, 0.1*33.17],</v>
+      </c>
+      <c r="M20" s="26" t="str">
+        <f>K60</f>
         <v>'Program Coordinator (exercise physiologist)(admin)': [6993.75*(1+fringe_rate), 0.1*6993.75*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="47"/>
-      <c r="L21" s="26" t="str">
-        <f>J64</f>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="42"/>
+      <c r="M21" s="26" t="str">
+        <f>K64</f>
         <v>'Program Director (registered dietitian)(admin)': [12741.81*(1+fringe_rate), 0.1*12741.81*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="52"/>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="47"/>
       <c r="B22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="43"/>
-      <c r="L22" s="26" t="str">
-        <f>J68</f>
+      <c r="C22" s="48"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="42"/>
+      <c r="M22" s="26" t="str">
+        <f>K68</f>
         <v>'Department Clinical Secretary': [561.38*(1+fringe_rate), 0.1*561.38*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
-      <c r="B23" s="51" t="s">
+    <row r="23" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="55">
+      <c r="D23" s="49"/>
+      <c r="E23" s="58">
         <v>10400</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" s="44"/>
+      <c r="H23" t="s">
         <v>140</v>
       </c>
-      <c r="H23" t="str">
-        <f>TEXT(E23,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>10400.00*(1+fringe_rate)</v>
-      </c>
-      <c r="I23" t="str">
-        <f>std_factor&amp;"*"&amp;H23</f>
-        <v>0.1*10400.00*(1+fringe_rate)</v>
-      </c>
-      <c r="J23" s="28" t="str">
-        <f>"'"&amp;B23&amp;"'"&amp;": " &amp;G23&amp;H23&amp;", " &amp;I23&amp;"],"</f>
-        <v>'Gym Room and Utilities': [10400.00*(1+fringe_rate), 0.1*10400.00*(1+fringe_rate)],</v>
-      </c>
-      <c r="L23" s="26" t="str">
-        <f>J74</f>
+      <c r="I23" s="9" t="str">
+        <f>TEXT(E23,"#.00") &amp; IF(F23,"*(1+fringe_rate)","")</f>
+        <v>10400.00</v>
+      </c>
+      <c r="J23" t="str">
+        <f>std_factor&amp;"*"&amp;I23</f>
+        <v>0.1*10400.00</v>
+      </c>
+      <c r="K23" s="28" t="str">
+        <f>"'"&amp;B23&amp;"'"&amp;": " &amp;H23&amp;I23&amp;", " &amp;J23&amp;"],"</f>
+        <v>'Gym Room and Utilities': [10400.00, 0.1*10400.00],</v>
+      </c>
+      <c r="M23" s="26" t="str">
+        <f>K74</f>
         <v>'Technician': [1447.77*(1+fringe_rate), 0.1*1447.77*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
+    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="56"/>
-      <c r="L24" s="26" t="str">
-        <f>J81</f>
-        <v>'Equipment (Weight): ': [928.88*(1+fringe_rate), 0.1*928.88*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="43"/>
+      <c r="M24" s="26" t="str">
+        <f>K81</f>
+        <v>'Equipment (Weight): ': [928.88, 0.1*928.88],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="57"/>
-      <c r="L25" s="26" t="str">
-        <f>J86</f>
-        <v>'Equipment (Height):': [79.62*(1+fringe_rate), 0.1*79.62*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
-      <c r="B26" s="51" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="44"/>
+      <c r="M25" s="26" t="str">
+        <f>K86</f>
+        <v>'Equipment (Height):': [79.62, 0.1*79.62],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="46" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="41">
+      <c r="D26" s="49"/>
+      <c r="E26" s="52">
         <f>150*inflation_factor^13</f>
         <v>199.04574790141706</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" s="42"/>
+      <c r="H26" t="s">
         <v>140</v>
       </c>
-      <c r="H26" t="str">
-        <f>TEXT(E26,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>199.05*(1+fringe_rate)</v>
-      </c>
-      <c r="I26" t="str">
-        <f>std_factor&amp;"*"&amp;H26</f>
-        <v>0.1*199.05*(1+fringe_rate)</v>
-      </c>
-      <c r="J26" s="28" t="str">
-        <f>"'"&amp;B26&amp;"'"&amp;": " &amp;G26&amp;H26&amp;", " &amp;I26&amp;"],"</f>
-        <v>'First Aid Kit': [199.05*(1+fringe_rate), 0.1*199.05*(1+fringe_rate)],</v>
-      </c>
-      <c r="L26" s="26" t="str">
-        <f>J91</f>
+      <c r="I26" s="9" t="str">
+        <f>TEXT(E26,"#.00") &amp; IF(F26,"*(1+fringe_rate)","")</f>
+        <v>199.05</v>
+      </c>
+      <c r="J26" t="str">
+        <f>std_factor&amp;"*"&amp;I26</f>
+        <v>0.1*199.05</v>
+      </c>
+      <c r="K26" s="28" t="str">
+        <f>"'"&amp;B26&amp;"'"&amp;": " &amp;H26&amp;I26&amp;", " &amp;J26&amp;"],"</f>
+        <v>'First Aid Kit': [199.05, 0.1*199.05],</v>
+      </c>
+      <c r="M26" s="26" t="str">
+        <f>K91</f>
         <v>'Medical Director': [5448.85*(1+fringe_rate), 0.1*5448.85*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
-      <c r="B27" s="54"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="47"/>
-      <c r="L27" s="26" t="str">
-        <f>J95</f>
-        <v>'Space:': [3980.91*(1+fringe_rate), 0.1*3980.91*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
-      <c r="B28" s="54"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="42"/>
+      <c r="M27" s="26" t="str">
+        <f>K95</f>
+        <v>'Space:': [3980.91, 0.1*3980.91],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="47"/>
-      <c r="L28" s="26" t="str">
-        <f>J97</f>
-        <v>'Cleaning Service': [1174.37*(1+fringe_rate), 0.1*1174.37*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="42"/>
+      <c r="M28" s="26" t="str">
+        <f>K97</f>
+        <v>'Cleaning Service': [1174.37, 0.1*1174.37],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="43"/>
-      <c r="L29" s="26" t="str">
-        <f>J98</f>
-        <v>'Clinic Equipment and Supplies ': [3848.22*(1+fringe_rate), 0.1*3848.22*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="51" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="42"/>
+      <c r="M29" s="26" t="str">
+        <f>K98</f>
+        <v>'Clinic Equipment and Supplies ': [3848.22, 0.1*3848.22],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1885,201 +2009,222 @@
       <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="52">
         <f>52*D30*inflation_factor</f>
         <v>1592.72568</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
         <v>140</v>
       </c>
-      <c r="H30" t="str">
-        <f>TEXT(E30,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I30" s="9" t="str">
+        <f>TEXT(E30,"#.00") &amp; IF(F30,"*(1+fringe_rate)","")</f>
         <v>1592.73*(1+fringe_rate)</v>
       </c>
-      <c r="I30" t="str">
-        <f>std_factor&amp;"*"&amp;H30</f>
+      <c r="J30" t="str">
+        <f>std_factor&amp;"*"&amp;I30</f>
         <v>0.1*1592.73*(1+fringe_rate)</v>
       </c>
-      <c r="J30" s="28" t="str">
-        <f>"'"&amp;B30&amp;"'"&amp;": " &amp;G30&amp;H30&amp;", " &amp;I30&amp;"],"</f>
+      <c r="K30" s="28" t="str">
+        <f>"'"&amp;B30&amp;"'"&amp;": " &amp;H30&amp;I30&amp;", " &amp;J30&amp;"],"</f>
         <v>'Registered Dietitian A': [1592.73*(1+fringe_rate), 0.1*1592.73*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="52"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="42"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="42"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="52"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="41"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="47"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="42"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="52"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="41"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
       <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="43"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="52"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="47"/>
       <c r="B35" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="52">
         <f>156*D35*inflation_factor</f>
         <v>4778.1770399999996</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
         <v>140</v>
       </c>
-      <c r="H35" t="str">
-        <f>TEXT(E35,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I35" s="9" t="str">
+        <f>TEXT(E35,"#.00") &amp; IF(F35,"*(1+fringe_rate)","")</f>
         <v>4778.18*(1+fringe_rate)</v>
       </c>
-      <c r="I35" t="str">
-        <f>std_factor&amp;"*"&amp;H35</f>
+      <c r="J35" t="str">
+        <f>std_factor&amp;"*"&amp;I35</f>
         <v>0.1*4778.18*(1+fringe_rate)</v>
       </c>
-      <c r="J35" s="28" t="str">
-        <f>"'"&amp;B35&amp;"'"&amp;": " &amp;G35&amp;H35&amp;", " &amp;I35&amp;"],"</f>
+      <c r="K35" s="28" t="str">
+        <f>"'"&amp;B35&amp;"'"&amp;": " &amp;H35&amp;I35&amp;", " &amp;J35&amp;"],"</f>
         <v>'Registered Dietitian B': [4778.18*(1+fringe_rate), 0.1*4778.18*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="52"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="47"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="52"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="47"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="52"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="47"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="52"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="47"/>
       <c r="B39" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="43"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="52"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
       <c r="B40" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="52">
         <f>52*D40*inflation_factor</f>
         <v>1287.67912</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
         <v>140</v>
       </c>
-      <c r="H40" t="str">
-        <f>TEXT(E40,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I40" s="9" t="str">
+        <f>TEXT(E40,"#.00") &amp; IF(F40,"*(1+fringe_rate)","")</f>
         <v>1287.68*(1+fringe_rate)</v>
       </c>
-      <c r="I40" t="str">
-        <f>std_factor&amp;"*"&amp;H40</f>
+      <c r="J40" t="str">
+        <f>std_factor&amp;"*"&amp;I40</f>
         <v>0.1*1287.68*(1+fringe_rate)</v>
       </c>
-      <c r="J40" s="28" t="str">
-        <f>"'"&amp;B40&amp;"'"&amp;": " &amp;G40&amp;H40&amp;", " &amp;I40&amp;"],"</f>
+      <c r="K40" s="28" t="str">
+        <f>"'"&amp;B40&amp;"'"&amp;": " &amp;H40&amp;I40&amp;", " &amp;J40&amp;"],"</f>
         <v>'Social Worker (Nutrition Session)': [1287.68*(1+fringe_rate), 0.1*1287.68*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="52"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="47"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="42"/>
-    </row>
-    <row r="42" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A42" s="52"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="41"/>
+    </row>
+    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
       <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="42"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="41"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="42"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="52"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="41"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="47"/>
       <c r="B44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="43"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="52"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="42"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="47"/>
       <c r="B45" s="17" t="s">
         <v>47</v>
       </c>
@@ -2091,71 +2236,75 @@
         <f>C45*inflation_factor^13</f>
         <v>1791.4117311127536</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" t="s">
+      <c r="F45" s="42"/>
+      <c r="G45" s="9"/>
+      <c r="H45" t="s">
         <v>140</v>
       </c>
-      <c r="H45" t="str">
-        <f>TEXT(E45,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1791.41*(1+fringe_rate)</v>
-      </c>
-      <c r="I45" t="str">
-        <f>std_factor&amp;"*"&amp;H45</f>
-        <v>0.1*1791.41*(1+fringe_rate)</v>
-      </c>
-      <c r="J45" s="28" t="str">
-        <f>"'"&amp;B45&amp;"'"&amp;": " &amp;G45&amp;H45&amp;", " &amp;I45&amp;"],"</f>
-        <v>'Educational Tools ': [1791.41*(1+fringe_rate), 0.1*1791.41*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="52"/>
-      <c r="B46" s="51" t="s">
+      <c r="I45" s="9" t="str">
+        <f>TEXT(E45,"#.00") &amp; IF(F45,"*(1+fringe_rate)","")</f>
+        <v>1791.41</v>
+      </c>
+      <c r="J45" t="str">
+        <f>std_factor&amp;"*"&amp;I45</f>
+        <v>0.1*1791.41</v>
+      </c>
+      <c r="K45" s="28" t="str">
+        <f>"'"&amp;B45&amp;"'"&amp;": " &amp;H45&amp;I45&amp;", " &amp;J45&amp;"],"</f>
+        <v>'Educational Tools ': [1791.41, 0.1*1791.41],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A46" s="47"/>
+      <c r="B46" s="46" t="s">
         <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="55">
+      <c r="D46" s="49"/>
+      <c r="E46" s="58">
         <v>2600</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F46" s="44"/>
+      <c r="H46" t="s">
         <v>140</v>
       </c>
-      <c r="H46" t="str">
-        <f>TEXT(E46,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>2600.00*(1+fringe_rate)</v>
-      </c>
-      <c r="I46" t="str">
-        <f>std_factor&amp;"*"&amp;H46</f>
-        <v>0.1*2600.00*(1+fringe_rate)</v>
-      </c>
-      <c r="J46" s="28" t="str">
-        <f>"'"&amp;B46&amp;"'"&amp;": " &amp;G46&amp;H46&amp;", " &amp;I46&amp;"],"</f>
-        <v>'Classroom and Utilities (Nutrition Session)': [2600.00*(1+fringe_rate), 0.1*2600.00*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
+      <c r="I46" s="9" t="str">
+        <f>TEXT(E46,"#.00") &amp; IF(F46,"*(1+fringe_rate)","")</f>
+        <v>2600.00</v>
+      </c>
+      <c r="J46" t="str">
+        <f>std_factor&amp;"*"&amp;I46</f>
+        <v>0.1*2600.00</v>
+      </c>
+      <c r="K46" s="28" t="str">
+        <f>"'"&amp;B46&amp;"'"&amp;": " &amp;H46&amp;I46&amp;", " &amp;J46&amp;"],"</f>
+        <v>'Classroom and Utilities (Nutrition Session)': [2600.00, 0.1*2600.00],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="56"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="57"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="51" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="44"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2164,158 +2313,171 @@
       <c r="C49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="52">
         <f>52*D49*inflation_factor</f>
         <v>1287.67912</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F49" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
         <v>140</v>
       </c>
-      <c r="H49" t="str">
-        <f>TEXT(E49,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I49" s="9" t="str">
+        <f>TEXT(E49,"#.00") &amp; IF(F49,"*(1+fringe_rate)","")</f>
         <v>1287.68*(1+fringe_rate)</v>
       </c>
-      <c r="I49" t="str">
-        <f>std_factor&amp;"*"&amp;H49</f>
+      <c r="J49" t="str">
+        <f>std_factor&amp;"*"&amp;I49</f>
         <v>0.1*1287.68*(1+fringe_rate)</v>
       </c>
-      <c r="J49" s="28" t="str">
-        <f>"'"&amp;B49&amp;"'"&amp;": " &amp;G49&amp;H49&amp;", " &amp;I49&amp;"],"</f>
+      <c r="K49" s="28" t="str">
+        <f>"'"&amp;B49&amp;"'"&amp;": " &amp;H49&amp;I49&amp;", " &amp;J49&amp;"],"</f>
         <v>'Social Worker (Parent Session)': [1287.68*(1+fringe_rate), 0.1*1287.68*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="54"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="47"/>
-    </row>
-    <row r="51" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A51" s="54"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
       <c r="B51" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="47"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="54"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="47"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="54"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="42"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="55"/>
       <c r="B53" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="43"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="54"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
       <c r="B54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="46">
         <v>25</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="41">
+      <c r="D54" s="49"/>
+      <c r="E54" s="52">
         <f>C54*inflation_factor^13</f>
         <v>33.174291316902845</v>
       </c>
-      <c r="G54" t="s">
+      <c r="F54" s="42"/>
+      <c r="H54" t="s">
         <v>140</v>
       </c>
-      <c r="H54" t="str">
-        <f>TEXT(E54,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>33.17*(1+fringe_rate)</v>
-      </c>
-      <c r="I54" t="str">
-        <f>std_factor&amp;"*"&amp;H54</f>
-        <v>0.1*33.17*(1+fringe_rate)</v>
-      </c>
-      <c r="J54" s="28" t="str">
-        <f>"'"&amp;B54&amp;"'"&amp;": " &amp;G54&amp;H54&amp;", " &amp;I54&amp;"],"</f>
-        <v>'Printed Materials (Parent Session)': [33.17*(1+fringe_rate), 0.1*33.17*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="54"/>
+      <c r="I54" s="9" t="str">
+        <f>TEXT(E54,"#.00") &amp; IF(F54,"*(1+fringe_rate)","")</f>
+        <v>33.17</v>
+      </c>
+      <c r="J54" t="str">
+        <f>std_factor&amp;"*"&amp;I54</f>
+        <v>0.1*33.17</v>
+      </c>
+      <c r="K54" s="28" t="str">
+        <f>"'"&amp;B54&amp;"'"&amp;": " &amp;H54&amp;I54&amp;", " &amp;J54&amp;"],"</f>
+        <v>'Printed Materials (Parent Session)': [33.17, 0.1*33.17],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="42"/>
-    </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="54"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="41"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="55"/>
       <c r="B56" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="43"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="54"/>
-      <c r="B57" s="51" t="s">
+      <c r="C56" s="48"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="42"/>
+    </row>
+    <row r="57" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="46" t="s">
         <v>147</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="55">
+      <c r="D57" s="49"/>
+      <c r="E57" s="58">
         <v>2600</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F57" s="44"/>
+      <c r="H57" t="s">
         <v>140</v>
       </c>
-      <c r="H57" t="str">
-        <f>TEXT(E57,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>2600.00*(1+fringe_rate)</v>
-      </c>
-      <c r="I57" t="str">
-        <f>std_factor&amp;"*"&amp;H57</f>
-        <v>0.1*2600.00*(1+fringe_rate)</v>
-      </c>
-      <c r="J57" s="28" t="str">
-        <f>"'"&amp;B57&amp;"'"&amp;": " &amp;G57&amp;H57&amp;", " &amp;I57&amp;"],"</f>
-        <v>'Classroom and Utilities (Parent Session)': [2600.00*(1+fringe_rate), 0.1*2600.00*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
+      <c r="I57" s="9" t="str">
+        <f>TEXT(E57,"#.00") &amp; IF(F57,"*(1+fringe_rate)","")</f>
+        <v>2600.00</v>
+      </c>
+      <c r="J57" t="str">
+        <f>std_factor&amp;"*"&amp;I57</f>
+        <v>0.1*2600.00</v>
+      </c>
+      <c r="K57" s="28" t="str">
+        <f>"'"&amp;B57&amp;"'"&amp;": " &amp;H57&amp;I57&amp;", " &amp;J57&amp;"],"</f>
+        <v>'Classroom and Utilities (Parent Session)': [2600.00, 0.1*2600.00],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="58"/>
-    </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="44"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="57"/>
-    </row>
-    <row r="60" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A60" s="51" t="s">
+      <c r="D59" s="51"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="44"/>
+    </row>
+    <row r="60" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2324,192 +2486,212 @@
       <c r="C60" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="41">
+      <c r="E60" s="52">
         <f>260*D60*inflation_factor</f>
         <v>6993.7503999999999</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F60" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>140</v>
       </c>
-      <c r="H60" t="str">
-        <f>TEXT(E60,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I60" s="9" t="str">
+        <f>TEXT(E60,"#.00") &amp; IF(F60,"*(1+fringe_rate)","")</f>
         <v>6993.75*(1+fringe_rate)</v>
       </c>
-      <c r="I60" t="str">
-        <f>std_factor&amp;"*"&amp;H60</f>
+      <c r="J60" t="str">
+        <f>std_factor&amp;"*"&amp;I60</f>
         <v>0.1*6993.75*(1+fringe_rate)</v>
       </c>
-      <c r="J60" s="28" t="str">
-        <f>"'"&amp;B60&amp;"'"&amp;": " &amp;G60&amp;H60&amp;", " &amp;I60&amp;"],"</f>
+      <c r="K60" s="28" t="str">
+        <f>"'"&amp;B60&amp;"'"&amp;": " &amp;H60&amp;I60&amp;", " &amp;J60&amp;"],"</f>
         <v>'Program Coordinator (exercise physiologist)(admin)': [6993.75*(1+fringe_rate), 0.1*6993.75*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="52"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
       <c r="B61" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="42"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="52"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="41"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
       <c r="B62" s="4"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="42"/>
-    </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="52"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="41"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="47"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="43"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="52"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="42"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
       <c r="B64" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="52">
         <f>416*D64*inflation_factor</f>
         <v>12741.80544</v>
       </c>
-      <c r="G64" t="s">
+      <c r="F64" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
         <v>140</v>
       </c>
-      <c r="H64" t="str">
-        <f>TEXT(E64,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I64" s="9" t="str">
+        <f>TEXT(E64,"#.00") &amp; IF(F64,"*(1+fringe_rate)","")</f>
         <v>12741.81*(1+fringe_rate)</v>
       </c>
-      <c r="I64" t="str">
-        <f>std_factor&amp;"*"&amp;H64</f>
+      <c r="J64" t="str">
+        <f>std_factor&amp;"*"&amp;I64</f>
         <v>0.1*12741.81*(1+fringe_rate)</v>
       </c>
-      <c r="J64" s="28" t="str">
-        <f>"'"&amp;B64&amp;"'"&amp;": " &amp;G64&amp;H64&amp;", " &amp;I64&amp;"],"</f>
+      <c r="K64" s="28" t="str">
+        <f>"'"&amp;B64&amp;"'"&amp;": " &amp;H64&amp;I64&amp;", " &amp;J64&amp;"],"</f>
         <v>'Program Director (registered dietitian)(admin)': [12741.81*(1+fringe_rate), 0.1*12741.81*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="52"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
       <c r="B65" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="48"/>
-      <c r="E65" s="47"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="52"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="42"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
       <c r="B66" s="4"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="47"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="52"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="42"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="47"/>
       <c r="B67" s="5"/>
       <c r="C67" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="46"/>
-      <c r="E67" s="43"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="52"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="42"/>
+    </row>
+    <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
       <c r="B68" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="41">
+      <c r="E68" s="52">
         <f>30*D68*inflation_factor</f>
         <v>561.38459999999998</v>
       </c>
-      <c r="G68" t="s">
+      <c r="F68" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
         <v>140</v>
       </c>
-      <c r="H68" t="str">
-        <f>TEXT(E68,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I68" s="9" t="str">
+        <f>TEXT(E68,"#.00") &amp; IF(F68,"*(1+fringe_rate)","")</f>
         <v>561.38*(1+fringe_rate)</v>
       </c>
-      <c r="I68" t="str">
-        <f>std_factor&amp;"*"&amp;H68</f>
+      <c r="J68" t="str">
+        <f>std_factor&amp;"*"&amp;I68</f>
         <v>0.1*561.38*(1+fringe_rate)</v>
       </c>
-      <c r="J68" s="28" t="str">
-        <f>"'"&amp;B68&amp;"'"&amp;": " &amp;G68&amp;H68&amp;", " &amp;I68&amp;"],"</f>
+      <c r="K68" s="28" t="str">
+        <f>"'"&amp;B68&amp;"'"&amp;": " &amp;H68&amp;I68&amp;", " &amp;J68&amp;"],"</f>
         <v>'Department Clinical Secretary': [561.38*(1+fringe_rate), 0.1*561.38*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="52"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
       <c r="B69" s="3"/>
       <c r="C69" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="45"/>
-      <c r="E69" s="42"/>
-    </row>
-    <row r="70" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A70" s="52"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="41"/>
+    </row>
+    <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
       <c r="B70" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="45"/>
-      <c r="E70" s="42"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="52"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="41"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
       <c r="B71" s="3"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="42"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="52"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="41"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
       <c r="B72" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="45"/>
-      <c r="E72" s="42"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="53"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="41"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="48"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="43"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="51" t="s">
+      <c r="D73" s="51"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="42"/>
+    </row>
+    <row r="74" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A74" s="46" t="s">
         <v>65</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -2518,215 +2700,234 @@
       <c r="C74" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E74" s="52">
         <f>60*D74*inflation_factor</f>
         <v>1447.7651999999998</v>
       </c>
-      <c r="G74" t="s">
+      <c r="F74" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
         <v>140</v>
       </c>
-      <c r="H74" t="str">
-        <f>TEXT(E74,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I74" s="9" t="str">
+        <f>TEXT(E74,"#.00") &amp; IF(F74,"*(1+fringe_rate)","")</f>
         <v>1447.77*(1+fringe_rate)</v>
       </c>
-      <c r="I74" t="str">
-        <f>std_factor&amp;"*"&amp;H74</f>
+      <c r="J74" t="str">
+        <f>std_factor&amp;"*"&amp;I74</f>
         <v>0.1*1447.77*(1+fringe_rate)</v>
       </c>
-      <c r="J74" s="28" t="str">
-        <f>"'"&amp;B74&amp;"'"&amp;": " &amp;G74&amp;H74&amp;", " &amp;I74&amp;"],"</f>
+      <c r="K74" s="28" t="str">
+        <f>"'"&amp;B74&amp;"'"&amp;": " &amp;H74&amp;I74&amp;", " &amp;J74&amp;"],"</f>
         <v>'Technician': [1447.77*(1+fringe_rate), 0.1*1447.77*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="54"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="55"/>
       <c r="B75" s="3"/>
       <c r="C75" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="48"/>
-      <c r="E75" s="47"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="54"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="42"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="55"/>
       <c r="B76" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="48"/>
-      <c r="E76" s="47"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="54"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="55"/>
       <c r="B77" s="3"/>
       <c r="C77" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="47"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="54"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="42"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="55"/>
       <c r="B78" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="6"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="47"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="54"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="42"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="55"/>
       <c r="B79" s="4"/>
       <c r="C79" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="48"/>
-      <c r="E79" s="47"/>
-    </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="54"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="42"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="55"/>
       <c r="B80" s="5"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="43"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="54"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="42"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="55"/>
       <c r="B81" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="44"/>
-      <c r="E81" s="41">
+      <c r="D81" s="49"/>
+      <c r="E81" s="52">
         <f>700*inflation_factor^13</f>
         <v>928.88015687327959</v>
       </c>
-      <c r="G81" t="s">
+      <c r="F81" s="42"/>
+      <c r="H81" t="s">
         <v>140</v>
       </c>
-      <c r="H81" t="str">
-        <f>TEXT(E81,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>928.88*(1+fringe_rate)</v>
-      </c>
-      <c r="I81" t="str">
-        <f>std_factor&amp;"*"&amp;H81</f>
-        <v>0.1*928.88*(1+fringe_rate)</v>
-      </c>
-      <c r="J81" s="28" t="str">
-        <f>"'"&amp;B81&amp;"'"&amp;": " &amp;G81&amp;H81&amp;", " &amp;I81&amp;"],"</f>
-        <v>'Equipment (Weight): ': [928.88*(1+fringe_rate), 0.1*928.88*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="54"/>
+      <c r="I81" s="9" t="str">
+        <f>TEXT(E81,"#.00") &amp; IF(F81,"*(1+fringe_rate)","")</f>
+        <v>928.88</v>
+      </c>
+      <c r="J81" t="str">
+        <f>std_factor&amp;"*"&amp;I81</f>
+        <v>0.1*928.88</v>
+      </c>
+      <c r="K81" s="28" t="str">
+        <f>"'"&amp;B81&amp;"'"&amp;": " &amp;H81&amp;I81&amp;", " &amp;J81&amp;"],"</f>
+        <v>'Equipment (Weight): ': [928.88, 0.1*928.88],</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="55"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="45"/>
-      <c r="E82" s="42"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="54"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="41"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="55"/>
       <c r="B83" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="45"/>
-      <c r="E83" s="42"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="54"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="41"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="55"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="42"/>
-    </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="54"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="41"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="55"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="46"/>
-      <c r="E85" s="43"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="54"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="42"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="55"/>
       <c r="B86" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="44"/>
-      <c r="E86" s="41">
+      <c r="D86" s="49"/>
+      <c r="E86" s="52">
         <f>60*inflation_factor^13</f>
         <v>79.618299160566821</v>
       </c>
-      <c r="G86" t="s">
+      <c r="F86" s="42"/>
+      <c r="H86" t="s">
         <v>140</v>
       </c>
-      <c r="H86" t="str">
-        <f>TEXT(E86,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>79.62*(1+fringe_rate)</v>
-      </c>
-      <c r="I86" t="str">
-        <f>std_factor&amp;"*"&amp;H86</f>
-        <v>0.1*79.62*(1+fringe_rate)</v>
-      </c>
-      <c r="J86" s="28" t="str">
-        <f>"'"&amp;B86&amp;"'"&amp;": " &amp;G86&amp;H86&amp;", " &amp;I86&amp;"],"</f>
-        <v>'Equipment (Height):': [79.62*(1+fringe_rate), 0.1*79.62*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="54"/>
+      <c r="I86" s="9" t="str">
+        <f>TEXT(E86,"#.00") &amp; IF(F86,"*(1+fringe_rate)","")</f>
+        <v>79.62</v>
+      </c>
+      <c r="J86" t="str">
+        <f>std_factor&amp;"*"&amp;I86</f>
+        <v>0.1*79.62</v>
+      </c>
+      <c r="K86" s="28" t="str">
+        <f>"'"&amp;B86&amp;"'"&amp;": " &amp;H86&amp;I86&amp;", " &amp;J86&amp;"],"</f>
+        <v>'Equipment (Height):': [79.62, 0.1*79.62],</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="55"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="48"/>
-      <c r="E87" s="47"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="54"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="55"/>
       <c r="B88" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="48"/>
-      <c r="E88" s="47"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="54"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="42"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="55"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="47"/>
-    </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="53"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="42"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="48"/>
       <c r="B90" s="5"/>
       <c r="C90" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D90" s="46"/>
-      <c r="E90" s="43"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="51" t="s">
+      <c r="D90" s="51"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="42"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="46" t="s">
         <v>83</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -2735,100 +2936,108 @@
       <c r="C91" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="44" t="s">
+      <c r="D91" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E91" s="41">
+      <c r="E91" s="52">
         <f>52*D91*inflation_factor</f>
         <v>5448.8543200000004</v>
       </c>
-      <c r="G91" t="s">
+      <c r="F91" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
         <v>140</v>
       </c>
-      <c r="H91" t="str">
-        <f>TEXT(E91,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I91" s="9" t="str">
+        <f>TEXT(E91,"#.00") &amp; IF(F91,"*(1+fringe_rate)","")</f>
         <v>5448.85*(1+fringe_rate)</v>
       </c>
-      <c r="I91" t="str">
-        <f>std_factor&amp;"*"&amp;H91</f>
+      <c r="J91" t="str">
+        <f>std_factor&amp;"*"&amp;I91</f>
         <v>0.1*5448.85*(1+fringe_rate)</v>
       </c>
-      <c r="J91" s="28" t="str">
-        <f>"'"&amp;B91&amp;"'"&amp;": " &amp;G91&amp;H91&amp;", " &amp;I91&amp;"],"</f>
+      <c r="K91" s="28" t="str">
+        <f>"'"&amp;B91&amp;"'"&amp;": " &amp;H91&amp;I91&amp;", " &amp;J91&amp;"],"</f>
         <v>'Medical Director': [5448.85*(1+fringe_rate), 0.1*5448.85*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="52"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="47"/>
       <c r="B92" s="3"/>
       <c r="C92" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="45"/>
-      <c r="E92" s="42"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="52"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="41"/>
+    </row>
+    <row r="93" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A93" s="47"/>
       <c r="B93" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C93" s="6"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="42"/>
-    </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="53"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="41"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="48"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D94" s="46"/>
-      <c r="E94" s="43"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="51" t="s">
+      <c r="D94" s="51"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="42"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="46" t="s">
         <v>88</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D95" s="41">
+      <c r="D95" s="52">
         <v>3000</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="52">
         <f>D95*inflation_factor^13</f>
         <v>3980.9149580283411</v>
       </c>
-      <c r="G95" t="s">
+      <c r="F95" s="42"/>
+      <c r="H95" t="s">
         <v>140</v>
       </c>
-      <c r="H95" t="str">
-        <f>TEXT(E95,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>3980.91*(1+fringe_rate)</v>
-      </c>
-      <c r="I95" t="str">
-        <f>std_factor&amp;"*"&amp;H95</f>
-        <v>0.1*3980.91*(1+fringe_rate)</v>
-      </c>
-      <c r="J95" s="28" t="str">
-        <f>"'"&amp;B95&amp;"'"&amp;": " &amp;G95&amp;H95&amp;", " &amp;I95&amp;"],"</f>
-        <v>'Space:': [3980.91*(1+fringe_rate), 0.1*3980.91*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="54"/>
+      <c r="I95" s="9" t="str">
+        <f>TEXT(E95,"#.00") &amp; IF(F95,"*(1+fringe_rate)","")</f>
+        <v>3980.91</v>
+      </c>
+      <c r="J95" t="str">
+        <f>std_factor&amp;"*"&amp;I95</f>
+        <v>0.1*3980.91</v>
+      </c>
+      <c r="K95" s="28" t="str">
+        <f>"'"&amp;B95&amp;"'"&amp;": " &amp;H95&amp;I95&amp;", " &amp;J95&amp;"],"</f>
+        <v>'Space:': [3980.91, 0.1*3980.91],</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="55"/>
       <c r="B96" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="53"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-    </row>
-    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="54"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="42"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="55"/>
       <c r="B97" s="3" t="s">
         <v>92</v>
       </c>
@@ -2839,25 +3048,26 @@
         <f>C97*inflation_factor^13</f>
         <v>1174.3699126183606</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" t="s">
+      <c r="F97" s="41"/>
+      <c r="G97" s="9"/>
+      <c r="H97" t="s">
         <v>140</v>
       </c>
-      <c r="H97" t="str">
-        <f>TEXT(E97,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1174.37*(1+fringe_rate)</v>
-      </c>
-      <c r="I97" t="str">
-        <f>std_factor&amp;"*"&amp;H97</f>
-        <v>0.1*1174.37*(1+fringe_rate)</v>
-      </c>
-      <c r="J97" s="28" t="str">
-        <f>"'"&amp;B97&amp;"'"&amp;": " &amp;G97&amp;H97&amp;", " &amp;I97&amp;"],"</f>
-        <v>'Cleaning Service': [1174.37*(1+fringe_rate), 0.1*1174.37*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="53"/>
+      <c r="I97" s="9" t="str">
+        <f>TEXT(E97,"#.00") &amp; IF(F97,"*(1+fringe_rate)","")</f>
+        <v>1174.37</v>
+      </c>
+      <c r="J97" t="str">
+        <f>std_factor&amp;"*"&amp;I97</f>
+        <v>0.1*1174.37</v>
+      </c>
+      <c r="K97" s="28" t="str">
+        <f>"'"&amp;B97&amp;"'"&amp;": " &amp;H97&amp;I97&amp;", " &amp;J97&amp;"],"</f>
+        <v>'Cleaning Service': [1174.37, 0.1*1174.37],</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="48"/>
       <c r="B98" s="17" t="s">
         <v>93</v>
       </c>
@@ -2868,24 +3078,25 @@
         <f>C98*inflation_factor^13</f>
         <v>3848.2177927607299</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" t="s">
+      <c r="F98" s="42"/>
+      <c r="G98" s="9"/>
+      <c r="H98" t="s">
         <v>140</v>
       </c>
-      <c r="H98" t="str">
-        <f>TEXT(E98,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>3848.22*(1+fringe_rate)</v>
-      </c>
-      <c r="I98" t="str">
-        <f>std_factor&amp;"*"&amp;H98</f>
-        <v>0.1*3848.22*(1+fringe_rate)</v>
-      </c>
-      <c r="J98" s="28" t="str">
-        <f>"'"&amp;B98&amp;"'"&amp;": " &amp;G98&amp;H98&amp;", " &amp;I98&amp;"],"</f>
-        <v>'Clinic Equipment and Supplies ': [3848.22*(1+fringe_rate), 0.1*3848.22*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I98" s="9" t="str">
+        <f>TEXT(E98,"#.00") &amp; IF(F98,"*(1+fringe_rate)","")</f>
+        <v>3848.22</v>
+      </c>
+      <c r="J98" t="str">
+        <f>std_factor&amp;"*"&amp;I98</f>
+        <v>0.1*3848.22</v>
+      </c>
+      <c r="K98" s="28" t="str">
+        <f>"'"&amp;B98&amp;"'"&amp;": " &amp;H98&amp;I98&amp;", " &amp;J98&amp;"],"</f>
+        <v>'Clinic Equipment and Supplies ': [3848.22, 0.1*3848.22],</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20"/>
       <c r="B99" s="15"/>
       <c r="C99" s="21" t="s">
@@ -2896,39 +3107,31 @@
         <f>SUM(E5:E98)</f>
         <v>79237.09815781613</v>
       </c>
+      <c r="F99" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="A74:A90"/>
-    <mergeCell ref="D74:D80"/>
-    <mergeCell ref="E74:E80"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="E81:E85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="E86:E90"/>
-    <mergeCell ref="A60:A73"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="E68:E73"/>
-    <mergeCell ref="A49:A59"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A29"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="A30:A48"/>
     <mergeCell ref="D30:D34"/>
@@ -2940,87 +3143,101 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="E46:E48"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A29"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="A60:A73"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="E68:E73"/>
+    <mergeCell ref="A74:A90"/>
+    <mergeCell ref="D74:D80"/>
+    <mergeCell ref="E74:E80"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="E81:E85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="E86:E90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090316C-733A-4FB0-9989-132A7989C4ED}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="M5" sqref="M5:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" customWidth="1"/>
-    <col min="14" max="14" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="49.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="63">
+      <c r="B1" s="45">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="C1">
         <f>1+inflation</f>
         <v>1.022</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J2" s="27" t="s">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="M2" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="62" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3029,22 +3246,26 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="F3" s="68"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
+      <c r="F4" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3053,153 +3274,192 @@
       <c r="C5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="52">
         <f>(225+45)*D5*inflation_factor</f>
         <v>14837.293800000001</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>140</v>
       </c>
-      <c r="H5" t="str">
-        <f>TEXT(E5,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I5" s="9" t="str">
+        <f>TEXT(E5,"#.00") &amp; IF(F5,"*(1+fringe_rate)","")</f>
         <v>14837.29*(1+fringe_rate)</v>
       </c>
-      <c r="I5" t="str">
-        <f>std_factor&amp;"*"&amp;H5</f>
+      <c r="J5" t="str">
+        <f>std_factor&amp;"*"&amp;I5</f>
         <v>0.1*14837.29*(1+fringe_rate)</v>
       </c>
-      <c r="J5" s="26" t="str">
-        <f>"'"&amp;B5&amp;"'"&amp;": " &amp;G5&amp;H5&amp;", " &amp;I5&amp;"],"</f>
+      <c r="K5" s="28" t="str">
+        <f>"'"&amp;B5&amp;"'"&amp;": " &amp;H5&amp;I5&amp;", " &amp;J5&amp;"],"</f>
         <v>'Nurse Practitioner': [14837.29*(1+fringe_rate), 0.1*14837.29*(1+fringe_rate)],</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="M5" s="26" t="str">
+        <f>K5</f>
+        <v>'Nurse Practitioner': [14837.29*(1+fringe_rate), 0.1*14837.29*(1+fringe_rate)],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="42"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="52"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="41"/>
+      <c r="M6" s="26" t="str">
+        <f>K18</f>
+        <v>'Registered Dietitian': [5743.00*(1+fringe_rate), 0.1*5743.00*(1+fringe_rate)],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
       <c r="B7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="42"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="52"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="41"/>
+      <c r="M7" s="26" t="str">
+        <f>K32</f>
+        <v>'Social Worker (Behavioral visit)': [4457.35*(1+fringe_rate), 0.1*4457.35*(1+fringe_rate)],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="42"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="52"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="42"/>
+      <c r="M8" s="26" t="str">
+        <f>K47</f>
+        <v>'Department Clinical Secretary': [2245.54*(1+fringe_rate), 0.1*2245.54*(1+fringe_rate)],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
       <c r="B9" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="42"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="42"/>
+      <c r="M9" s="26" t="str">
+        <f>K62</f>
+        <v>'Technician': [1447.77*(1+fringe_rate), 0.1*1447.77*(1+fringe_rate)],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
       <c r="B10" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="41"/>
+      <c r="M10" s="26" t="str">
+        <f>K68</f>
+        <v>'Medical Director': [12574.28*(1+fringe_rate), 0.1*12574.28*(1+fringe_rate)],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="42"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="52"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="41"/>
+      <c r="M11" s="26" t="str">
+        <f>K74</f>
+        <v>'Space:': [3980.91, 0.1*3980.91],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="42"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="42"/>
+      <c r="M12" s="26" t="str">
+        <f>K76</f>
+        <v>'Cleaning Service': [1174.37, 0.1*1174.37],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
       <c r="B13" s="4"/>
       <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="42"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="42"/>
+      <c r="M13" s="26" t="str">
+        <f>K77</f>
+        <v>'Clinic Equipment and Supplies ': [3848.22, 0.1*3848.22],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
       <c r="B14" s="4"/>
       <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="42"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="52"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="42"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="52"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="42"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="53"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
       <c r="B17" s="5"/>
       <c r="C17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="43"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3208,163 +3468,166 @@
       <c r="C18" s="3">
         <v>-1</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="52">
         <f>(157.5+30)*D18*inflation_factor</f>
         <v>5743.0012500000003</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
         <v>140</v>
       </c>
-      <c r="H18" t="str">
-        <f>TEXT(E18,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I18" s="9" t="str">
+        <f>TEXT(E18,"#.00") &amp; IF(F18,"*(1+fringe_rate)","")</f>
         <v>5743.00*(1+fringe_rate)</v>
       </c>
-      <c r="I18" t="str">
-        <f>std_factor&amp;"*"&amp;H18</f>
+      <c r="J18" t="str">
+        <f>std_factor&amp;"*"&amp;I18</f>
         <v>0.1*5743.00*(1+fringe_rate)</v>
       </c>
-      <c r="J18" s="26" t="str">
-        <f>"'"&amp;B18&amp;"'"&amp;": " &amp;G18&amp;H18&amp;", " &amp;I18&amp;"],"</f>
+      <c r="K18" s="28" t="str">
+        <f>"'"&amp;B18&amp;"'"&amp;": " &amp;H18&amp;I18&amp;", " &amp;J18&amp;"],"</f>
         <v>'Registered Dietitian': [5743.00*(1+fringe_rate), 0.1*5743.00*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A19" s="52"/>
+    <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="42"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
       <c r="B20" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="42"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="42"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
       <c r="B22" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="42"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
       <c r="B23" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="42"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3">
         <v>-2</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="42"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
       <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
       <c r="B26" s="4"/>
       <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
       <c r="B27" s="4"/>
       <c r="C27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="42"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
       <c r="B28" s="4"/>
       <c r="C28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="42"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
       <c r="B29" s="4"/>
       <c r="C29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="42"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="42"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="53"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="48"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="43"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="51" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
         <v>116</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3373,346 +3636,352 @@
       <c r="C32" s="11">
         <v>-1</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="52">
         <f>(150+30)*D32*inflation_factor</f>
         <v>4457.3508000000002</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F32" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>140</v>
       </c>
-      <c r="H32" t="str">
-        <f>TEXT(E32,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I32" s="9" t="str">
+        <f>TEXT(E32,"#.00") &amp; IF(F32,"*(1+fringe_rate)","")</f>
         <v>4457.35*(1+fringe_rate)</v>
       </c>
-      <c r="I32" t="str">
-        <f>std_factor&amp;"*"&amp;H32</f>
+      <c r="J32" t="str">
+        <f>std_factor&amp;"*"&amp;I32</f>
         <v>0.1*4457.35*(1+fringe_rate)</v>
       </c>
-      <c r="J32" s="26" t="str">
-        <f>"'"&amp;B32&amp;"'"&amp;": " &amp;G32&amp;H32&amp;", " &amp;I32&amp;"],"</f>
+      <c r="K32" s="28" t="str">
+        <f>"'"&amp;B32&amp;"'"&amp;": " &amp;H32&amp;I32&amp;", " &amp;J32&amp;"],"</f>
         <v>'Social Worker (Behavioral visit)': [4457.35*(1+fringe_rate), 0.1*4457.35*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="54"/>
+    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="47"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A34" s="54"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="41"/>
+    </row>
+    <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
       <c r="B34" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="47"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="54"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="47"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="54"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="55"/>
       <c r="B36" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="47"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="54"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="55"/>
       <c r="B37" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="47"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="54"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="47"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="54"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3">
         <v>-2</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="47"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="54"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A40" s="55"/>
       <c r="B40" s="4"/>
       <c r="C40" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="47"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="54"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="42"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="55"/>
       <c r="B41" s="4"/>
       <c r="C41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="47"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="54"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="55"/>
       <c r="B42" s="4"/>
       <c r="C42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="47"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="54"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="41"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
       <c r="B43" s="4"/>
       <c r="C43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="47"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="54"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="41"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
       <c r="B44" s="4"/>
       <c r="C44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="47"/>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="54"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="42"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="47"/>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="53"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="48"/>
       <c r="B46" s="5"/>
       <c r="C46" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="43"/>
-      <c r="J46" s="26"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="51" t="s">
+      <c r="D46" s="51"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="44"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="52">
         <f>(30+90)*D47*inflation_factor</f>
         <v>2245.5383999999999</v>
       </c>
-      <c r="G47" t="s">
+      <c r="F47" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
         <v>140</v>
       </c>
-      <c r="H47" t="str">
-        <f>TEXT(E47,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I47" s="9" t="str">
+        <f>TEXT(E47,"#.00") &amp; IF(F47,"*(1+fringe_rate)","")</f>
         <v>2245.54*(1+fringe_rate)</v>
       </c>
-      <c r="I47" t="str">
-        <f>std_factor&amp;"*"&amp;H47</f>
+      <c r="J47" t="str">
+        <f>std_factor&amp;"*"&amp;I47</f>
         <v>0.1*2245.54*(1+fringe_rate)</v>
       </c>
-      <c r="J47" s="26" t="str">
-        <f>"'"&amp;B47&amp;"'"&amp;": " &amp;G47&amp;H47&amp;", " &amp;I47&amp;"],"</f>
+      <c r="K47" s="28" t="str">
+        <f>"'"&amp;B47&amp;"'"&amp;": " &amp;H47&amp;I47&amp;", " &amp;J47&amp;"],"</f>
         <v>'Department Clinical Secretary': [2245.54*(1+fringe_rate), 0.1*2245.54*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="52"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
       <c r="B48" s="3"/>
       <c r="C48" s="6">
         <v>-1</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="42"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A49" s="52"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="44"/>
+    </row>
+    <row r="49" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
       <c r="B49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="42"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="52"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="42"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="52"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
       <c r="B51" s="24" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="42"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="52"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="47"/>
       <c r="B52" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="42"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="52"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="42"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="47"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="42"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="52"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="47"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3">
         <v>-2</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="42"/>
-      <c r="J54" s="26"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="52"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="42"/>
+    </row>
+    <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A55" s="47"/>
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="42"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="52"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="41"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
       <c r="B56" s="4"/>
       <c r="C56" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="42"/>
-      <c r="J56" s="26"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="52"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="42"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="47"/>
       <c r="B57" s="4"/>
       <c r="C57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="42"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="52"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="44"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="42"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="52"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="44"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
       <c r="B59" s="4"/>
       <c r="C59" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="45"/>
-      <c r="E59" s="42"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="52"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="44"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="42"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="53"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="42"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="48"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="46"/>
-      <c r="E61" s="43"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" ht="23" x14ac:dyDescent="0.35">
-      <c r="A62" s="51" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="41"/>
+    </row>
+    <row r="62" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
         <v>128</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -3721,83 +3990,86 @@
       <c r="C62" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="41">
+      <c r="D62" s="52">
         <v>23.61</v>
       </c>
-      <c r="E62" s="41">
+      <c r="E62" s="52">
         <f>(60)*D62*inflation_factor</f>
         <v>1447.7651999999998</v>
       </c>
-      <c r="G62" t="s">
+      <c r="F62" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>140</v>
       </c>
-      <c r="H62" t="str">
-        <f>TEXT(E62,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I62" s="9" t="str">
+        <f>TEXT(E62,"#.00") &amp; IF(F62,"*(1+fringe_rate)","")</f>
         <v>1447.77*(1+fringe_rate)</v>
       </c>
-      <c r="I62" t="str">
-        <f>std_factor&amp;"*"&amp;H62</f>
+      <c r="J62" t="str">
+        <f>std_factor&amp;"*"&amp;I62</f>
         <v>0.1*1447.77*(1+fringe_rate)</v>
       </c>
-      <c r="J62" s="26" t="str">
-        <f>"'"&amp;B62&amp;"'"&amp;": " &amp;G62&amp;H62&amp;", " &amp;I62&amp;"],"</f>
+      <c r="K62" s="28" t="str">
+        <f>"'"&amp;B62&amp;"'"&amp;": " &amp;H62&amp;I62&amp;", " &amp;J62&amp;"],"</f>
         <v>'Technician': [1447.77*(1+fringe_rate), 0.1*1447.77*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="54"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
       <c r="B63" s="3"/>
       <c r="C63" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="54"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="42"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
       <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="J64" s="26"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="54"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="42"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
       <c r="B65" s="3"/>
       <c r="C65" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="J65" s="26"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="54"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="42"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
       <c r="B66" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="53"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="42"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="48"/>
       <c r="B67" s="5"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="51" t="s">
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="42"/>
+    </row>
+    <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -3806,126 +4078,130 @@
       <c r="C68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="41">
+      <c r="E68" s="52">
         <f>(120)*D68*inflation_factor</f>
         <v>12574.279200000001</v>
       </c>
-      <c r="G68" t="s">
+      <c r="F68" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
         <v>140</v>
       </c>
-      <c r="H68" t="str">
-        <f>TEXT(E68,"#.00") &amp; "*(1+fringe_rate)"</f>
+      <c r="I68" s="9" t="str">
+        <f>TEXT(E68,"#.00") &amp; IF(F68,"*(1+fringe_rate)","")</f>
         <v>12574.28*(1+fringe_rate)</v>
       </c>
-      <c r="I68" t="str">
-        <f>std_factor&amp;"*"&amp;H68</f>
+      <c r="J68" t="str">
+        <f>std_factor&amp;"*"&amp;I68</f>
         <v>0.1*12574.28*(1+fringe_rate)</v>
       </c>
-      <c r="J68" s="26" t="str">
-        <f>"'"&amp;B68&amp;"'"&amp;": " &amp;G68&amp;H68&amp;", " &amp;I68&amp;"],"</f>
+      <c r="K68" s="28" t="str">
+        <f>"'"&amp;B68&amp;"'"&amp;": " &amp;H68&amp;I68&amp;", " &amp;J68&amp;"],"</f>
         <v>'Medical Director': [12574.28*(1+fringe_rate), 0.1*12574.28*(1+fringe_rate)],</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="52"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="45"/>
-      <c r="E69" s="42"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="52"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="41"/>
+    </row>
+    <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A70" s="47"/>
       <c r="B70" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="45"/>
-      <c r="E70" s="42"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="52"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="41"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="47"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="45"/>
-      <c r="E71" s="42"/>
-      <c r="J71" s="26"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="52"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="41"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="47"/>
       <c r="B72" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="42"/>
-      <c r="J72" s="26"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="53"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="41"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="48"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="43"/>
-      <c r="J73" s="26"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="51" t="s">
+      <c r="D73" s="51"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="42"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="46" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74" s="52">
         <v>3000</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E74" s="52">
         <f>D74*inflation_factor^13</f>
         <v>3980.9149580283411</v>
       </c>
-      <c r="G74" t="s">
+      <c r="F74" s="42"/>
+      <c r="H74" t="s">
         <v>140</v>
       </c>
-      <c r="H74" t="str">
-        <f>TEXT(E74,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>3980.91*(1+fringe_rate)</v>
-      </c>
-      <c r="I74" t="str">
-        <f>std_factor&amp;"*"&amp;H74</f>
-        <v>0.1*3980.91*(1+fringe_rate)</v>
-      </c>
-      <c r="J74" s="26" t="str">
-        <f>"'"&amp;B74&amp;"'"&amp;": " &amp;G74&amp;H74&amp;", " &amp;I74&amp;"],"</f>
-        <v>'Space:': [3980.91*(1+fringe_rate), 0.1*3980.91*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="54"/>
+      <c r="I74" s="9" t="str">
+        <f>TEXT(E74,"#.00") &amp; IF(F74,"*(1+fringe_rate)","")</f>
+        <v>3980.91</v>
+      </c>
+      <c r="J74" t="str">
+        <f>std_factor&amp;"*"&amp;I74</f>
+        <v>0.1*3980.91</v>
+      </c>
+      <c r="K74" s="28" t="str">
+        <f>"'"&amp;B74&amp;"'"&amp;": " &amp;H74&amp;I74&amp;", " &amp;J74&amp;"],"</f>
+        <v>'Space:': [3980.91, 0.1*3980.91],</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="55"/>
       <c r="B75" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="54"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="42"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="55"/>
       <c r="B76" s="3" t="s">
         <v>92</v>
       </c>
@@ -3936,24 +4212,25 @@
         <f>C76*inflation_factor^13</f>
         <v>1174.3699126183606</v>
       </c>
-      <c r="G76" t="s">
+      <c r="F76" s="42"/>
+      <c r="H76" t="s">
         <v>140</v>
       </c>
-      <c r="H76" t="str">
-        <f>TEXT(E76,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>1174.37*(1+fringe_rate)</v>
-      </c>
-      <c r="I76" t="str">
-        <f>std_factor&amp;"*"&amp;H76</f>
-        <v>0.1*1174.37*(1+fringe_rate)</v>
-      </c>
-      <c r="J76" s="26" t="str">
-        <f>"'"&amp;B76&amp;"'"&amp;": " &amp;G76&amp;H76&amp;", " &amp;I76&amp;"],"</f>
-        <v>'Cleaning Service': [1174.37*(1+fringe_rate), 0.1*1174.37*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="53"/>
+      <c r="I76" s="9" t="str">
+        <f>TEXT(E76,"#.00") &amp; IF(F76,"*(1+fringe_rate)","")</f>
+        <v>1174.37</v>
+      </c>
+      <c r="J76" t="str">
+        <f>std_factor&amp;"*"&amp;I76</f>
+        <v>0.1*1174.37</v>
+      </c>
+      <c r="K76" s="28" t="str">
+        <f>"'"&amp;B76&amp;"'"&amp;": " &amp;H76&amp;I76&amp;", " &amp;J76&amp;"],"</f>
+        <v>'Cleaning Service': [1174.37, 0.1*1174.37],</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="48"/>
       <c r="B77" s="17" t="s">
         <v>93</v>
       </c>
@@ -3964,23 +4241,24 @@
         <f>C77*inflation_factor^13</f>
         <v>3848.2177927607299</v>
       </c>
-      <c r="G77" t="s">
+      <c r="F77" s="42"/>
+      <c r="H77" t="s">
         <v>140</v>
       </c>
-      <c r="H77" t="str">
-        <f>TEXT(E77,"#.00") &amp; "*(1+fringe_rate)"</f>
-        <v>3848.22*(1+fringe_rate)</v>
-      </c>
-      <c r="I77" t="str">
-        <f>std_factor&amp;"*"&amp;H77</f>
-        <v>0.1*3848.22*(1+fringe_rate)</v>
-      </c>
-      <c r="J77" s="26" t="str">
-        <f>"'"&amp;B77&amp;"'"&amp;": " &amp;G77&amp;H77&amp;", " &amp;I77&amp;"],"</f>
-        <v>'Clinic Equipment and Supplies ': [3848.22*(1+fringe_rate), 0.1*3848.22*(1+fringe_rate)],</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I77" s="9" t="str">
+        <f>TEXT(E77,"#.00") &amp; IF(F77,"*(1+fringe_rate)","")</f>
+        <v>3848.22</v>
+      </c>
+      <c r="J77" t="str">
+        <f>std_factor&amp;"*"&amp;I77</f>
+        <v>0.1*3848.22</v>
+      </c>
+      <c r="K77" s="28" t="str">
+        <f>"'"&amp;B77&amp;"'"&amp;": " &amp;H77&amp;I77&amp;", " &amp;J77&amp;"],"</f>
+        <v>'Clinic Equipment and Supplies ': [3848.22, 0.1*3848.22],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="15"/>
       <c r="C78" s="21" t="s">
@@ -3991,9 +4269,90 @@
         <f>SUM(E5:E77)</f>
         <v>50308.731313407436</v>
       </c>
+      <c r="F78" s="42"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F79" s="42"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F80" s="42"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="42"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="41"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="41"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="41"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="42"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="42"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="42"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="42"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="42"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="41"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="41"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="42"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="42"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="42"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="41"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="42"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="D18:D31"/>
+    <mergeCell ref="E18:E31"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="E5:E17"/>
+    <mergeCell ref="D47:D61"/>
+    <mergeCell ref="E47:E61"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="D32:D46"/>
+    <mergeCell ref="E32:E46"/>
+    <mergeCell ref="A47:A61"/>
     <mergeCell ref="E74:E75"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="C74:C75"/>
@@ -4004,24 +4363,9 @@
     <mergeCell ref="E68:E73"/>
     <mergeCell ref="A62:A67"/>
     <mergeCell ref="D62:D67"/>
-    <mergeCell ref="E18:E31"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="E5:E17"/>
-    <mergeCell ref="D47:D61"/>
-    <mergeCell ref="E47:E61"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="D32:D46"/>
-    <mergeCell ref="E32:E46"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A18:A31"/>
-    <mergeCell ref="D18:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4033,13 +4377,13 @@
       <selection activeCell="J29" sqref="I29:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="66" t="s">
         <v>152</v>
       </c>
       <c r="C1" s="37" t="s">
@@ -4058,9 +4402,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="60"/>
-      <c r="B2" s="62"/>
+    <row r="2" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="38" t="s">
         <v>154</v>
       </c>
@@ -4077,7 +4421,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>160</v>
       </c>
@@ -4100,7 +4444,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>161</v>
       </c>
@@ -4123,7 +4467,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>1996</v>
       </c>
@@ -4146,7 +4490,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>1997</v>
       </c>
@@ -4169,7 +4513,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>1998</v>
       </c>
@@ -4192,7 +4536,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>1999</v>
       </c>
@@ -4215,7 +4559,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>2000</v>
       </c>
@@ -4238,7 +4582,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>2001</v>
       </c>
@@ -4261,7 +4605,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <v>2002</v>
       </c>
@@ -4284,7 +4628,7 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>2003</v>
       </c>
@@ -4307,7 +4651,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
         <v>2004</v>
       </c>
@@ -4330,7 +4674,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>2005</v>
       </c>
@@ -4353,7 +4697,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>2006</v>
       </c>
@@ -4376,7 +4720,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>2007</v>
       </c>
@@ -4399,7 +4743,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>2008</v>
       </c>
@@ -4422,7 +4766,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>2009</v>
       </c>
@@ -4445,7 +4789,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>2010</v>
       </c>
@@ -4468,7 +4812,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>2011</v>
       </c>
@@ -4491,7 +4835,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>2012</v>
       </c>
@@ -4514,7 +4858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>2013</v>
       </c>
@@ -4537,7 +4881,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>2014</v>
       </c>
@@ -4560,7 +4904,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>2015</v>
       </c>
@@ -4583,7 +4927,7 @@
         <v>108.3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
         <v>2016</v>
       </c>
@@ -4606,7 +4950,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36">
         <v>2017</v>
       </c>
@@ -4629,7 +4973,7 @@
         <v>113.2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36">
         <v>2018</v>
       </c>
@@ -4652,7 +4996,7 @@
         <v>116.3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36">
         <v>2019</v>
       </c>
@@ -4675,7 +5019,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>2020</v>
       </c>
@@ -4718,4 +5062,241 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E15A3-C1C1-4D01-967A-71A230B3A53F}">
+  <dimension ref="A2:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="72">
+        <v>220</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72">
+        <v>30</v>
+      </c>
+      <c r="E3" s="72">
+        <v>450</v>
+      </c>
+      <c r="G3" s="72">
+        <f>(E3-D3)/2</f>
+        <v>210</v>
+      </c>
+      <c r="H3" s="75">
+        <f>G3/_xlfn.NORM.S.INV(1-0.05/2)</f>
+        <v>107.14482595417735</v>
+      </c>
+      <c r="I3" s="75">
+        <f>POWER(H3/H4,2)</f>
+        <v>5.0444679573336391</v>
+      </c>
+      <c r="J3" s="76">
+        <f>(B3+B4*I3)/(1+I3)</f>
+        <v>133.20581542231832</v>
+      </c>
+      <c r="K3" s="75">
+        <f>(POWER(H3,2)+POWER(H4,2)*I3)/(1+I3)</f>
+        <v>3798.5191781263306</v>
+      </c>
+      <c r="L3" s="76">
+        <f>SQRT(K3)</f>
+        <v>61.632127807875747</v>
+      </c>
+      <c r="M3" s="75">
+        <f>_xlfn.NORM.S.INV(1-0.05/2)*L3</f>
+        <v>120.79675079400599</v>
+      </c>
+      <c r="N3" s="77">
+        <f>J3-M3</f>
+        <v>12.409064628312336</v>
+      </c>
+      <c r="O3" s="77">
+        <f>J3+M3</f>
+        <v>254.00256621632431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="72">
+        <v>116</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72">
+        <v>14</v>
+      </c>
+      <c r="E4" s="72">
+        <v>201</v>
+      </c>
+      <c r="G4" s="72">
+        <f>(E4-D4)/2</f>
+        <v>93.5</v>
+      </c>
+      <c r="H4" s="75">
+        <f>G4/_xlfn.NORM.S.INV(1-0.05/2)</f>
+        <v>47.704958222455154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="N6" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="O6" s="74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="72">
+        <v>197</v>
+      </c>
+      <c r="C7" s="72">
+        <v>43</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72">
+        <f>C7</f>
+        <v>43</v>
+      </c>
+      <c r="I7" s="75">
+        <f>POWER(H7/H8,2)</f>
+        <v>0.8768959703041278</v>
+      </c>
+      <c r="J7" s="76">
+        <f>(B7+B8*I7)/(1+I7)</f>
+        <v>222.69629810591582</v>
+      </c>
+      <c r="K7" s="75">
+        <f>(POWER(H7,2)+POWER(H8,2)*I7)/(1+I7)</f>
+        <v>1970.2743564422403</v>
+      </c>
+      <c r="L7" s="76">
+        <f>SQRT(K7)</f>
+        <v>44.387772600596215</v>
+      </c>
+      <c r="M7" s="75">
+        <f>_xlfn.NORM.S.INV(1-0.05/2)*L7</f>
+        <v>86.998435651122378</v>
+      </c>
+      <c r="N7" s="77">
+        <f>J7-M7</f>
+        <v>135.69786245479344</v>
+      </c>
+      <c r="O7" s="77">
+        <f>J7+M7</f>
+        <v>309.69473375703819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="72">
+        <v>252</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72">
+        <v>167</v>
+      </c>
+      <c r="E8" s="72">
+        <v>347</v>
+      </c>
+      <c r="G8" s="72">
+        <f>(E8-D8)/2</f>
+        <v>90</v>
+      </c>
+      <c r="H8" s="75">
+        <f>G8/_xlfn.NORM.S.INV(1-0.05/2)</f>
+        <v>45.919211123218865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bright_bodies_support/Cost items.xlsx
+++ b/bright_bodies_support/Cost items.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry87\PycharmProjects\ObesityModel\bright_bodies_support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14B9A3-BAD7-46F4-94CF-342B8E3AEC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A029ECB6-D819-4C6F-B3BB-3B8ACA70F83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="1485" windowWidth="13140" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BB" sheetId="1" r:id="rId1"/>
     <sheet name="CC" sheetId="3" r:id="rId2"/>
     <sheet name="inflation" sheetId="4" r:id="rId3"/>
     <sheet name="Pooled estimates" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="inflation" localSheetId="1">CC!$B$1</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="181">
   <si>
     <t>Cost Item</t>
   </si>
@@ -639,6 +640,30 @@
   </si>
   <si>
     <t>SE^2</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>StDev</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -932,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1055,72 +1080,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1148,6 +1107,88 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1432,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
@@ -1473,13 +1514,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="78" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1488,26 +1529,26 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="46"/>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="47" t="s">
         <v>162</v>
       </c>
       <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1516,10 +1557,10 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="68">
         <f>208*D5*inflation_factor</f>
         <v>5595.0003200000001</v>
       </c>
@@ -1547,13 +1588,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="53"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="41"/>
       <c r="M6" s="26" t="str">
         <f>K9</f>
@@ -1561,13 +1602,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="53"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="41"/>
       <c r="M7" s="26" t="str">
         <f>K13</f>
@@ -1575,13 +1616,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="42"/>
       <c r="M8" s="26" t="str">
         <f>K16</f>
@@ -1589,17 +1630,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="68">
         <f>260*D9*inflation_factor</f>
         <v>6993.7503999999999</v>
       </c>
@@ -1627,13 +1668,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="41"/>
       <c r="M10" s="26" t="str">
         <f>K23</f>
@@ -1641,13 +1682,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="41"/>
       <c r="M11" s="26" t="str">
         <f>K26</f>
@@ -1655,13 +1696,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="54"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="42"/>
       <c r="M12" s="26" t="str">
         <f>K30</f>
@@ -1669,15 +1710,15 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="68">
         <v>1900</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="52">
+      <c r="D13" s="65"/>
+      <c r="E13" s="68">
         <f>C13*inflation_factor^13</f>
         <v>2521.2461400846159</v>
       </c>
@@ -1703,11 +1744,11 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="42"/>
       <c r="M14" s="26" t="str">
         <f>K40</f>
@@ -1715,13 +1756,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="54"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="42"/>
       <c r="M15" s="26" t="str">
         <f>K45</f>
@@ -1729,15 +1770,15 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="52">
+      <c r="D16" s="65"/>
+      <c r="E16" s="68">
         <f>240*inflation_factor^13</f>
         <v>318.47319664226728</v>
       </c>
@@ -1763,13 +1804,13 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="41"/>
       <c r="M17" s="26" t="str">
         <f>K49</f>
@@ -1777,13 +1818,13 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="41"/>
       <c r="M18" s="26" t="str">
         <f>K54</f>
@@ -1791,13 +1832,13 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="54"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="42"/>
       <c r="M19" s="26" t="str">
         <f>K57</f>
@@ -1805,15 +1846,15 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="62">
         <v>25</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="52">
+      <c r="D20" s="65"/>
+      <c r="E20" s="68">
         <f>C20*inflation_factor^13</f>
         <v>33.174291316902845</v>
       </c>
@@ -1839,11 +1880,11 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="42"/>
       <c r="M21" s="26" t="str">
         <f>K64</f>
@@ -1851,13 +1892,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="54"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="42"/>
       <c r="M22" s="26" t="str">
         <f>K68</f>
@@ -1865,15 +1906,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="58">
+      <c r="D23" s="65"/>
+      <c r="E23" s="74">
         <v>10400</v>
       </c>
       <c r="F23" s="44"/>
@@ -1898,13 +1939,13 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="61"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="43"/>
       <c r="M24" s="26" t="str">
         <f>K81</f>
@@ -1912,13 +1953,13 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="60"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="44"/>
       <c r="M25" s="26" t="str">
         <f>K86</f>
@@ -1926,15 +1967,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="46" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="62" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="52">
+      <c r="D26" s="65"/>
+      <c r="E26" s="68">
         <f>150*inflation_factor^13</f>
         <v>199.04574790141706</v>
       </c>
@@ -1960,13 +2001,13 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="42"/>
       <c r="M27" s="26" t="str">
         <f>K95</f>
@@ -1974,11 +2015,11 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="42"/>
       <c r="M28" s="26" t="str">
         <f>K97</f>
@@ -1986,13 +2027,13 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="54"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="42"/>
       <c r="M29" s="26" t="str">
         <f>K98</f>
@@ -2000,7 +2041,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2009,10 +2050,10 @@
       <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="68">
         <f>52*D30*inflation_factor</f>
         <v>1592.72568</v>
       </c>
@@ -2036,57 +2077,57 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="53"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="53"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="53"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="69"/>
       <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="54"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="68">
         <f>156*D35*inflation_factor</f>
         <v>4778.1770399999996</v>
       </c>
@@ -2110,57 +2151,57 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
       <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
       <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="73"/>
       <c r="F38" s="42"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="54"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="70"/>
       <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="68">
         <f>52*D40*inflation_factor</f>
         <v>1287.67912</v>
       </c>
@@ -2184,47 +2225,47 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="53"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="53"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="69"/>
       <c r="F42" s="41"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="53"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="69"/>
       <c r="F43" s="41"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="54"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="17" t="s">
         <v>47</v>
       </c>
@@ -2255,15 +2296,15 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="46" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="62" t="s">
         <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="58">
+      <c r="D46" s="65"/>
+      <c r="E46" s="74">
         <v>2600</v>
       </c>
       <c r="F46" s="44"/>
@@ -2284,27 +2325,27 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="61"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="77"/>
       <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="60"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="76"/>
       <c r="F48" s="44"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="62" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2313,10 +2354,10 @@
       <c r="C49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="68">
         <f>52*D49*inflation_factor</f>
         <v>1287.67912</v>
       </c>
@@ -2340,55 +2381,55 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="42"/>
     </row>
     <row r="51" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="42"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="73"/>
       <c r="F52" s="42"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="54"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="70"/>
       <c r="F53" s="42"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="62">
         <v>25</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="52">
+      <c r="D54" s="65"/>
+      <c r="E54" s="68">
         <f>C54*inflation_factor^13</f>
         <v>33.174291316902845</v>
       </c>
@@ -2410,33 +2451,33 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="53"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="69"/>
       <c r="F55" s="41"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="54"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="70"/>
       <c r="F56" s="42"/>
     </row>
     <row r="57" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="46" t="s">
+      <c r="A57" s="71"/>
+      <c r="B57" s="62" t="s">
         <v>147</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="58">
+      <c r="D57" s="65"/>
+      <c r="E57" s="74">
         <v>2600</v>
       </c>
       <c r="F57" s="44"/>
@@ -2457,27 +2498,27 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="59"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="44"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="60"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="76"/>
       <c r="F59" s="44"/>
     </row>
     <row r="60" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2486,10 +2527,10 @@
       <c r="C60" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60" s="68">
         <f>260*D60*inflation_factor</f>
         <v>6993.7503999999999</v>
       </c>
@@ -2513,47 +2554,47 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="53"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="69"/>
       <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="4"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="53"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="69"/>
       <c r="F62" s="41"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="54"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="70"/>
       <c r="F63" s="42"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="52">
+      <c r="E64" s="68">
         <f>416*D64*inflation_factor</f>
         <v>12741.80544</v>
       </c>
@@ -2577,47 +2618,47 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="73"/>
       <c r="F65" s="42"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="4"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="42"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="47"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="5"/>
       <c r="C67" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="51"/>
-      <c r="E67" s="54"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="70"/>
       <c r="F67" s="42"/>
     </row>
     <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="68">
         <f>30*D68*inflation_factor</f>
         <v>561.38459999999998</v>
       </c>
@@ -2641,57 +2682,57 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="3"/>
       <c r="C69" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="50"/>
-      <c r="E69" s="53"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="69"/>
       <c r="F69" s="41"/>
     </row>
     <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="53"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="69"/>
       <c r="F70" s="41"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="3"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="53"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="69"/>
       <c r="F71" s="41"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="50"/>
-      <c r="E72" s="53"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="69"/>
       <c r="F72" s="41"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="48"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="54"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="70"/>
       <c r="F73" s="42"/>
     </row>
     <row r="74" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="62" t="s">
         <v>65</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -2700,10 +2741,10 @@
       <c r="C74" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="52">
+      <c r="E74" s="68">
         <f>60*D74*inflation_factor</f>
         <v>1447.7651999999998</v>
       </c>
@@ -2727,75 +2768,75 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="71"/>
       <c r="B75" s="3"/>
       <c r="C75" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="57"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="73"/>
       <c r="F75" s="42"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="57"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
       <c r="F76" s="42"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="71"/>
       <c r="B77" s="3"/>
       <c r="C77" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="56"/>
-      <c r="E77" s="57"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="73"/>
       <c r="F77" s="42"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="6"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="57"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="73"/>
       <c r="F78" s="42"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="4"/>
       <c r="C79" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="57"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="73"/>
       <c r="F79" s="42"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
+      <c r="A80" s="71"/>
       <c r="B80" s="5"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="54"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="70"/>
       <c r="F80" s="42"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="71"/>
       <c r="B81" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="49"/>
-      <c r="E81" s="52">
+      <c r="D81" s="65"/>
+      <c r="E81" s="68">
         <f>700*inflation_factor^13</f>
         <v>928.88015687327959</v>
       </c>
@@ -2817,55 +2858,55 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
+      <c r="A82" s="71"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="50"/>
-      <c r="E82" s="53"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="69"/>
       <c r="F82" s="41"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="71"/>
       <c r="B83" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="53"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="69"/>
       <c r="F83" s="41"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="71"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="53"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="69"/>
       <c r="F84" s="41"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
+      <c r="A85" s="71"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="51"/>
-      <c r="E85" s="54"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="70"/>
       <c r="F85" s="42"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="52">
+      <c r="D86" s="65"/>
+      <c r="E86" s="68">
         <f>60*inflation_factor^13</f>
         <v>79.618299160566821</v>
       </c>
@@ -2887,47 +2928,47 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="71"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="57"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="73"/>
       <c r="F87" s="42"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="71"/>
       <c r="B88" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="56"/>
-      <c r="E88" s="57"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="73"/>
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="71"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="57"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="73"/>
       <c r="F89" s="42"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="48"/>
+      <c r="A90" s="64"/>
       <c r="B90" s="5"/>
       <c r="C90" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D90" s="51"/>
-      <c r="E90" s="54"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="70"/>
       <c r="F90" s="42"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="46" t="s">
+      <c r="A91" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -2936,10 +2977,10 @@
       <c r="C91" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D91" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E91" s="52">
+      <c r="E91" s="68">
         <f>52*D91*inflation_factor</f>
         <v>5448.8543200000004</v>
       </c>
@@ -2963,49 +3004,49 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="3"/>
       <c r="C92" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="53"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="69"/>
       <c r="F92" s="41"/>
     </row>
     <row r="93" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C93" s="6"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="53"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="69"/>
       <c r="F93" s="41"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
+      <c r="A94" s="64"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D94" s="51"/>
-      <c r="E94" s="54"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="70"/>
       <c r="F94" s="42"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C95" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D95" s="52">
+      <c r="D95" s="68">
         <v>3000</v>
       </c>
-      <c r="E95" s="52">
+      <c r="E95" s="68">
         <f>D95*inflation_factor^13</f>
         <v>3980.9149580283411</v>
       </c>
@@ -3027,17 +3068,17 @@
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="55"/>
+      <c r="A96" s="71"/>
       <c r="B96" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="54"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
       <c r="F96" s="42"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="55"/>
+      <c r="A97" s="71"/>
       <c r="B97" s="3" t="s">
         <v>92</v>
       </c>
@@ -3067,7 +3108,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
+      <c r="A98" s="64"/>
       <c r="B98" s="17" t="s">
         <v>93</v>
       </c>
@@ -3231,13 +3272,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="78" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3246,26 +3287,26 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="46"/>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="47" t="s">
         <v>162</v>
       </c>
       <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="62" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3274,10 +3315,10 @@
       <c r="C5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="68">
         <f>(225+45)*D5*inflation_factor</f>
         <v>14837.293800000001</v>
       </c>
@@ -3305,13 +3346,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="53"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="41"/>
       <c r="M6" s="26" t="str">
         <f>K18</f>
@@ -3319,15 +3360,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="53"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="41"/>
       <c r="M7" s="26" t="str">
         <f>K32</f>
@@ -3335,13 +3376,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="42"/>
       <c r="M8" s="26" t="str">
         <f>K47</f>
@@ -3349,15 +3390,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="42"/>
       <c r="M9" s="26" t="str">
         <f>K62</f>
@@ -3365,13 +3406,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="41"/>
       <c r="M10" s="26" t="str">
         <f>K68</f>
@@ -3379,13 +3420,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="41"/>
       <c r="M11" s="26" t="str">
         <f>K74</f>
@@ -3393,13 +3434,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="42"/>
       <c r="M12" s="26" t="str">
         <f>K76</f>
@@ -3407,13 +3448,13 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="4"/>
       <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="53"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="42"/>
       <c r="M13" s="26" t="str">
         <f>K77</f>
@@ -3421,45 +3462,45 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="4"/>
       <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="53"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="5"/>
       <c r="C17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="54"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="62" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3468,10 +3509,10 @@
       <c r="C18" s="3">
         <v>-1</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="68">
         <f>(157.5+30)*D18*inflation_factor</f>
         <v>5743.0012500000003</v>
       </c>
@@ -3495,139 +3536,139 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="53"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="53"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="53"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="53"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="53"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3">
         <v>-2</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="53"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="69"/>
       <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="53"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="44"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="4"/>
       <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="53"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="69"/>
       <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="4"/>
       <c r="C27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="53"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="4"/>
       <c r="C28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="4"/>
       <c r="C29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="53"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="53"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="54"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="62" t="s">
         <v>116</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3636,10 +3677,10 @@
       <c r="C32" s="11">
         <v>-1</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="68">
         <f>(150+30)*D32*inflation_factor</f>
         <v>4457.3508000000002</v>
       </c>
@@ -3663,159 +3704,159 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
       <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="73"/>
       <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
       <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
       <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="73"/>
       <c r="F38" s="42"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3">
         <v>-2</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
       <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="4"/>
       <c r="C40" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
       <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="4"/>
       <c r="C41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
       <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="4"/>
       <c r="C42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
       <c r="F42" s="41"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="4"/>
       <c r="C43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="41"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="4"/>
       <c r="C44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="5"/>
       <c r="C46" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="54"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="70"/>
       <c r="F46" s="44"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="68">
         <f>(30+90)*D47*inflation_factor</f>
         <v>2245.5383999999999</v>
       </c>
@@ -3839,149 +3880,149 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="3"/>
       <c r="C48" s="6">
         <v>-1</v>
       </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="53"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="69"/>
       <c r="F48" s="44"/>
     </row>
     <row r="49" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="53"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="42"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="3"/>
       <c r="C50" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="53"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="69"/>
       <c r="F50" s="42"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="24" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="53"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="42"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="53"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="42"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="53"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="42"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3">
         <v>-2</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="53"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="69"/>
       <c r="F54" s="42"/>
     </row>
     <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="53"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="69"/>
       <c r="F55" s="41"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="4"/>
       <c r="C56" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="53"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="69"/>
       <c r="F56" s="42"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="4"/>
       <c r="C57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="50"/>
-      <c r="E57" s="53"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="69"/>
       <c r="F57" s="44"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="4"/>
       <c r="C58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="53"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="69"/>
       <c r="F58" s="44"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="4"/>
       <c r="C59" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="53"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="69"/>
       <c r="F59" s="44"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="53"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="69"/>
       <c r="F60" s="42"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="48"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="54"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="62" t="s">
         <v>128</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -3990,10 +4031,10 @@
       <c r="C62" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="68">
         <v>23.61</v>
       </c>
-      <c r="E62" s="52">
+      <c r="E62" s="68">
         <f>(60)*D62*inflation_factor</f>
         <v>1447.7651999999998</v>
       </c>
@@ -4017,59 +4058,59 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="3"/>
       <c r="C63" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
       <c r="F63" s="42"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
       <c r="F64" s="42"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="3"/>
       <c r="C65" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
       <c r="F65" s="42"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="42"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="48"/>
+      <c r="A67" s="64"/>
       <c r="B67" s="5"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
       <c r="F67" s="42"/>
     </row>
     <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="62" t="s">
         <v>132</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -4078,10 +4119,10 @@
       <c r="C68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="68">
         <f>(120)*D68*inflation_factor</f>
         <v>12574.279200000001</v>
       </c>
@@ -4105,71 +4146,71 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="50"/>
-      <c r="E69" s="53"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="69"/>
       <c r="F69" s="41"/>
     </row>
     <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="53"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="69"/>
       <c r="F70" s="41"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="53"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="69"/>
       <c r="F71" s="41"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="53"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="69"/>
       <c r="F72" s="41"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="48"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="51"/>
-      <c r="E73" s="54"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="70"/>
       <c r="F73" s="42"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C74" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="68">
         <v>3000</v>
       </c>
-      <c r="E74" s="52">
+      <c r="E74" s="68">
         <f>D74*inflation_factor^13</f>
         <v>3980.9149580283411</v>
       </c>
@@ -4191,17 +4232,17 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="55"/>
+      <c r="A75" s="71"/>
       <c r="B75" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
       <c r="F75" s="42"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="55"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="3" t="s">
         <v>92</v>
       </c>
@@ -4230,7 +4271,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="48"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="17" t="s">
         <v>93</v>
       </c>
@@ -4380,10 +4421,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="82" t="s">
         <v>152</v>
       </c>
       <c r="C1" s="37" t="s">
@@ -4403,8 +4444,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="38" t="s">
         <v>154</v>
       </c>
@@ -5066,234 +5107,547 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E15A3-C1C1-4D01-967A-71A230B3A53F}">
-  <dimension ref="A2:O8"/>
+  <dimension ref="A3:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B3" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C3" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D3" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E3" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G3" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H3" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I3" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J3" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K3" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L3" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="M3" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="N3" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="O3" s="52" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="72">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="60">
+        <v>180</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61">
+        <v>30</v>
+      </c>
+      <c r="E4" s="61">
+        <v>380</v>
+      </c>
+      <c r="G4" s="50">
+        <f>(E4-D4)/2</f>
+        <v>175</v>
+      </c>
+      <c r="H4" s="53">
+        <f>G4/_xlfn.NORM.S.INV(1-0.05/2)</f>
+        <v>89.287354961814458</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="50">
         <v>220</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50">
         <v>30</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E6" s="50">
         <v>450</v>
       </c>
-      <c r="G3" s="72">
-        <f>(E3-D3)/2</f>
+      <c r="G6" s="50">
+        <f>(E6-D6)/2</f>
         <v>210</v>
       </c>
-      <c r="H3" s="75">
-        <f>G3/_xlfn.NORM.S.INV(1-0.05/2)</f>
+      <c r="H6" s="53">
+        <f>G6/_xlfn.NORM.S.INV(1-0.05/2)</f>
         <v>107.14482595417735</v>
       </c>
-      <c r="I3" s="75">
-        <f>POWER(H3/H4,2)</f>
+      <c r="I6" s="53">
+        <f>POWER(H6/H7,2)</f>
         <v>5.0444679573336391</v>
       </c>
-      <c r="J3" s="76">
-        <f>(B3+B4*I3)/(1+I3)</f>
+      <c r="J6" s="54">
+        <f>(B6+B7*I6)/(1+I6)</f>
         <v>133.20581542231832</v>
       </c>
-      <c r="K3" s="75">
-        <f>(POWER(H3,2)+POWER(H4,2)*I3)/(1+I3)</f>
+      <c r="K6" s="53">
+        <f>(POWER(H6,2)+POWER(H7,2)*I6)/(1+I6)</f>
         <v>3798.5191781263306</v>
       </c>
-      <c r="L3" s="76">
-        <f>SQRT(K3)</f>
+      <c r="L6" s="54">
+        <f>SQRT(K6)</f>
         <v>61.632127807875747</v>
       </c>
-      <c r="M3" s="75">
-        <f>_xlfn.NORM.S.INV(1-0.05/2)*L3</f>
+      <c r="M6" s="53">
+        <f>_xlfn.NORM.S.INV(1-0.05/2)*L6</f>
         <v>120.79675079400599</v>
       </c>
-      <c r="N3" s="77">
-        <f>J3-M3</f>
+      <c r="N6" s="55">
+        <f>J6-M6</f>
         <v>12.409064628312336</v>
       </c>
-      <c r="O3" s="77">
-        <f>J3+M3</f>
+      <c r="O6" s="55">
+        <f>J6+M6</f>
         <v>254.00256621632431</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="72">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="50">
         <v>116</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50">
         <v>14</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E7" s="50">
         <v>201</v>
       </c>
-      <c r="G4" s="72">
-        <f>(E4-D4)/2</f>
+      <c r="G7" s="50">
+        <f>(E7-D7)/2</f>
         <v>93.5</v>
       </c>
-      <c r="H4" s="75">
-        <f>G4/_xlfn.NORM.S.INV(1-0.05/2)</f>
+      <c r="H7" s="53">
+        <f>G7/_xlfn.NORM.S.INV(1-0.05/2)</f>
         <v>47.704958222455154</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B9" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C9" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D9" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E9" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G9" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H9" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I9" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J9" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K9" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="L9" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M9" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="N6" s="74" t="s">
+      <c r="N9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="O6" s="74" t="s">
+      <c r="O9" s="52" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="72">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="50">
         <v>197</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C10" s="50">
         <v>43</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72">
-        <f>C7</f>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50">
+        <f>C10</f>
         <v>43</v>
       </c>
-      <c r="I7" s="75">
-        <f>POWER(H7/H8,2)</f>
+      <c r="I10" s="53">
+        <f>POWER(H10/H11,2)</f>
         <v>0.8768959703041278</v>
       </c>
-      <c r="J7" s="76">
-        <f>(B7+B8*I7)/(1+I7)</f>
+      <c r="J10" s="54">
+        <f>(B10+B11*I10)/(1+I10)</f>
         <v>222.69629810591582</v>
       </c>
-      <c r="K7" s="75">
-        <f>(POWER(H7,2)+POWER(H8,2)*I7)/(1+I7)</f>
+      <c r="K10" s="53">
+        <f>(POWER(H10,2)+POWER(H11,2)*I10)/(1+I10)</f>
         <v>1970.2743564422403</v>
       </c>
-      <c r="L7" s="76">
-        <f>SQRT(K7)</f>
+      <c r="L10" s="54">
+        <f>SQRT(K10)</f>
         <v>44.387772600596215</v>
       </c>
-      <c r="M7" s="75">
-        <f>_xlfn.NORM.S.INV(1-0.05/2)*L7</f>
+      <c r="M10" s="53">
+        <f>_xlfn.NORM.S.INV(1-0.05/2)*L10</f>
         <v>86.998435651122378</v>
       </c>
-      <c r="N7" s="77">
-        <f>J7-M7</f>
+      <c r="N10" s="55">
+        <f>J10-M10</f>
         <v>135.69786245479344</v>
       </c>
-      <c r="O7" s="77">
-        <f>J7+M7</f>
+      <c r="O10" s="55">
+        <f>J10+M10</f>
         <v>309.69473375703819</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="72">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="50">
         <v>252</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50">
         <v>167</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E11" s="50">
         <v>347</v>
       </c>
-      <c r="G8" s="72">
-        <f>(E8-D8)/2</f>
+      <c r="G11" s="50">
+        <f>(E11-D11)/2</f>
         <v>90</v>
       </c>
-      <c r="H8" s="75">
-        <f>G8/_xlfn.NORM.S.INV(1-0.05/2)</f>
+      <c r="H11" s="53">
+        <f>G11/_xlfn.NORM.S.INV(1-0.05/2)</f>
         <v>45.919211123218865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7464BBF-2D3B-4336-A71E-05AF42E48989}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.9</v>
+      </c>
+      <c r="C5">
+        <v>0.43</v>
+      </c>
+      <c r="E5">
+        <v>1.79</v>
+      </c>
+      <c r="F5">
+        <v>0.52</v>
+      </c>
+      <c r="H5">
+        <f>B5-E5</f>
+        <v>0.10999999999999988</v>
+      </c>
+      <c r="I5">
+        <f>SQRT(C5^2/$B$2+F5^2/$E$2)</f>
+        <v>5.8364753442848062E-2</v>
+      </c>
+      <c r="J5">
+        <f>I5^4</f>
+        <v>1.160386375308642E-5</v>
+      </c>
+      <c r="K5">
+        <f>(C5^2/$B$2)^2/($B$2-1)</f>
+        <v>4.7424067138299344E-8</v>
+      </c>
+      <c r="L5">
+        <f>(F5^2/E$2)^2/($E$2-1)</f>
+        <v>9.1854472361809059E-9</v>
+      </c>
+      <c r="M5">
+        <f>J5/SUM(K5:L5)</f>
+        <v>204.98080369185217</v>
+      </c>
+      <c r="N5">
+        <f>_xlfn.T.INV(1-0.05/2,M5)</f>
+        <v>1.9716608894937595</v>
+      </c>
+      <c r="P5">
+        <f>H5-I5*N5</f>
+        <v>-5.0755016882099019E-3</v>
+      </c>
+      <c r="Q5">
+        <f>H5+I5*N5</f>
+        <v>0.22507550168820967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.51</v>
+      </c>
+      <c r="E6">
+        <v>0.15</v>
+      </c>
+      <c r="F6">
+        <v>0.34</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H8" si="0">B6-E6</f>
+        <v>-0.15</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I8" si="1">SQRT(C6^2/$B$2+F6^2/$E$2)</f>
+        <v>5.8889727457341827E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J8" si="2">I6^4</f>
+        <v>1.2027023999999997E-5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K8" si="3">(C6^2/$B$2)^2/($B$2-1)</f>
+        <v>9.3843820224719097E-8</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L8" si="4">(F6^2/E$2)^2/($E$2-1)</f>
+        <v>1.6788140703517592E-9</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M8" si="5">J6/SUM(K6:L6)</f>
+        <v>125.9075829383886</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N8" si="6">_xlfn.T.INV(1-0.05/2,M6)</f>
+        <v>1.9791241094237992</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P8" si="7">H6-I6*N6</f>
+        <v>-0.2665500794082219</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q8" si="8">H6+I6*N6</f>
+        <v>-3.3449920591778093E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-1.8</v>
+      </c>
+      <c r="C7">
+        <v>0.33</v>
+      </c>
+      <c r="E7">
+        <v>-1.92</v>
+      </c>
+      <c r="F7">
+        <v>0.53</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.11999999999999988</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5.1132181647177942E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>6.835610250000005E-6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>1.6450561797752814E-8</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>9.9126645728643232E-9</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>259.28580037603302</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>1.9691655563583994</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1.9312269078915992E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="8"/>
+        <v>0.22068773092108379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
+        <v>0.41</v>
+      </c>
+      <c r="E8">
+        <v>1.05</v>
+      </c>
+      <c r="F8">
+        <v>0.49</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5.5392037133308043E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>9.4143285216049325E-6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>3.9197683451241489E-8</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>7.2422123115577888E-9</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>202.7207074212748</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>1.971777384669986</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>-0.25922076611025691</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="8"/>
+        <v>-4.0779233889743138E-2</v>
       </c>
     </row>
   </sheetData>
